--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6413E45A-4D43-4A50-896F-F5D185683470}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8F02E1-7964-45B8-98B1-90A6AACD3EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>user_30</t>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -476,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -493,7 +497,7 @@
         <v>53.624303999999995</v>
       </c>
       <c r="C1" s="1">
-        <v>19119</v>
+        <v>19122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>19069</v>
+        <v>19072</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>19021</v>
+        <v>19024</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,7 +525,7 @@
         <v>48.750912</v>
       </c>
       <c r="C4" s="1">
-        <v>18125</v>
+        <v>18129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,7 +537,7 @@
         <v>47.522087999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>18074</v>
+        <v>18078</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>18026</v>
+        <v>18030</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,7 +557,7 @@
         <v>44.122104</v>
       </c>
       <c r="C7" s="1">
-        <v>17126</v>
+        <v>17130</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,7 +569,7 @@
         <v>43.367999999999995</v>
       </c>
       <c r="C8" s="1">
-        <v>17076</v>
+        <v>17080</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -577,7 +581,7 @@
         <v>42.635592000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>17027</v>
+        <v>17031</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,7 +593,7 @@
         <v>41.249904000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>16126</v>
+        <v>16130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,7 +605,7 @@
         <v>40.231847999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>16077</v>
+        <v>16081</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +617,7 @@
         <v>38.952240000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>16027</v>
+        <v>16031</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,7 +629,7 @@
         <v>35.474328</v>
       </c>
       <c r="C13" s="1">
-        <v>15138</v>
+        <v>15142</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,7 +641,7 @@
         <v>36.708624</v>
       </c>
       <c r="C14" s="1">
-        <v>15077</v>
+        <v>15081</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,7 +653,7 @@
         <v>35.414423999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>15029</v>
+        <v>15034</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,10 +665,10 @@
         <v>33.86016</v>
       </c>
       <c r="C16" s="1">
-        <v>14127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -673,10 +677,10 @@
         <v>35.171592000000004</v>
       </c>
       <c r="C17" s="1">
-        <v>14054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -685,18 +689,18 @@
         <v>31.022328000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>14028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>13127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -705,10 +709,10 @@
         <v>28.843560000000004</v>
       </c>
       <c r="C20" s="3">
-        <v>13080</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -717,10 +721,10 @@
         <v>27.905208000000002</v>
       </c>
       <c r="C21" s="2">
-        <v>13029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -729,10 +733,10 @@
         <v>26.460647999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>12131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -741,10 +745,10 @@
         <v>25.35324</v>
       </c>
       <c r="C23" s="1">
-        <v>12088</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -753,10 +757,10 @@
         <v>24.065688000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>12041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -764,10 +768,10 @@
         <v>22.98638</v>
       </c>
       <c r="C25" s="1">
-        <v>11146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -775,10 +779,13 @@
         <v>19.31456</v>
       </c>
       <c r="C26" s="3">
-        <v>13100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13098</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -786,10 +793,10 @@
         <v>18.645409999999998</v>
       </c>
       <c r="C27" s="1">
-        <v>20002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -797,10 +804,13 @@
         <v>17.762119999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>13050</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13048</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -808,10 +818,10 @@
         <v>16.905760000000001</v>
       </c>
       <c r="C29" s="1">
-        <v>20101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8F02E1-7964-45B8-98B1-90A6AACD3EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF48A73-1198-4EA2-B24C-C8B7E6D719E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,7 +157,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +176,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -189,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -198,6 +210,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -688,7 +706,7 @@
         <f>1.292597*24</f>
         <v>31.022328000000002</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>14032</v>
       </c>
     </row>
@@ -696,7 +714,7 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>13131</v>
       </c>
     </row>
@@ -756,8 +774,11 @@
         <f>1.002737 *24</f>
         <v>24.065688000000002</v>
       </c>
-      <c r="C24" s="1">
-        <v>12045</v>
+      <c r="C24" s="5">
+        <v>14050</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,8 +788,11 @@
       <c r="B25">
         <v>22.98638</v>
       </c>
-      <c r="C25" s="1">
-        <v>11150</v>
+      <c r="C25" s="4">
+        <v>13153</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,7 +803,7 @@
         <v>19.31456</v>
       </c>
       <c r="C26" s="3">
-        <v>13098</v>
+        <v>13094</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -793,7 +817,7 @@
         <v>18.645409999999998</v>
       </c>
       <c r="C27" s="1">
-        <v>20005</v>
+        <v>20008</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -804,7 +828,7 @@
         <v>17.762119999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>13048</v>
+        <v>13044</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF48A73-1198-4EA2-B24C-C8B7E6D719E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284EFBA-6C84-4B39-B39D-4B9C2986CCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>43.367999999999995</v>
       </c>
       <c r="C8" s="1">
-        <v>17080</v>
+        <v>17085</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>31.022328000000002</v>
       </c>
       <c r="C18" s="5">
-        <v>14032</v>
+        <v>14037</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>13131</v>
+        <v>13137</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>28.843560000000004</v>
       </c>
       <c r="C20" s="3">
-        <v>13084</v>
+        <v>13090</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>27.905208000000002</v>
       </c>
       <c r="C21" s="2">
-        <v>13033</v>
+        <v>13038</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>26.460647999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>12138</v>
+        <v>12145</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
         <v>22.98638</v>
       </c>
       <c r="C25" s="4">
-        <v>13153</v>
+        <v>13152</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -803,7 +803,7 @@
         <v>19.31456</v>
       </c>
       <c r="C26" s="3">
-        <v>13094</v>
+        <v>13092</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -828,7 +828,7 @@
         <v>17.762119999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>13044</v>
+        <v>13042</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284EFBA-6C84-4B39-B39D-4B9C2986CCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8648C2B7-232A-4D39-A2F8-9B29BAFE939B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,7 @@
         <v>27.905208000000002</v>
       </c>
       <c r="C21" s="2">
-        <v>13038</v>
+        <v>13039</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>17.762119999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>13042</v>
+        <v>13041</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8648C2B7-232A-4D39-A2F8-9B29BAFE939B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A467DD54-27BB-42BC-8985-D0CAE6B085A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
         <f>1.465483 *24</f>
         <v>35.171592000000004</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>14058</v>
       </c>
     </row>
@@ -707,7 +707,7 @@
         <v>31.022328000000002</v>
       </c>
       <c r="C18" s="5">
-        <v>14037</v>
+        <v>14038</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>13137</v>
+        <v>13138</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>28.843560000000004</v>
       </c>
       <c r="C20" s="3">
-        <v>13090</v>
+        <v>13091</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>24.065688000000002</v>
       </c>
       <c r="C24" s="5">
-        <v>14050</v>
+        <v>14049</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -789,7 +789,7 @@
         <v>22.98638</v>
       </c>
       <c r="C25" s="4">
-        <v>13152</v>
+        <v>13151</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -803,7 +803,7 @@
         <v>19.31456</v>
       </c>
       <c r="C26" s="3">
-        <v>13092</v>
+        <v>14100</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -854,6 +854,17 @@
       </c>
       <c r="C30" s="1">
         <v>20050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A467DD54-27BB-42BC-8985-D0CAE6B085A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A8197A-7CC4-4772-BB2D-39E8961B868C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,7 +157,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -201,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -216,6 +222,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,7 +510,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -670,7 +679,7 @@
         <f>1.475601 *24</f>
         <v>35.414423999999997</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>15034</v>
       </c>
     </row>
@@ -682,7 +691,7 @@
         <f>1.41084 *24</f>
         <v>33.86016</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>14131</v>
       </c>
     </row>
@@ -695,7 +704,7 @@
         <v>35.171592000000004</v>
       </c>
       <c r="C17" s="3">
-        <v>14058</v>
+        <v>14065</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +748,7 @@
         <v>27.905208000000002</v>
       </c>
       <c r="C21" s="2">
-        <v>13039</v>
+        <v>13040</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,8 +771,11 @@
         <f>1.056385 *24</f>
         <v>25.35324</v>
       </c>
-      <c r="C23" s="1">
-        <v>12092</v>
+      <c r="C23" s="6">
+        <v>140152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,7 +787,7 @@
         <v>24.065688000000002</v>
       </c>
       <c r="C24" s="5">
-        <v>14049</v>
+        <v>14048</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -828,7 +840,7 @@
         <v>17.762119999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>13041</v>
+        <v>15050</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A8197A-7CC4-4772-BB2D-39E8961B868C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A7D7D-BEF7-4FE2-A91F-D494F2535585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,7 +157,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +194,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -207,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -225,6 +237,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -655,8 +673,8 @@
         <f>1.478097*24</f>
         <v>35.474328</v>
       </c>
-      <c r="C13" s="1">
-        <v>15142</v>
+      <c r="C13" s="8">
+        <v>15150</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -667,8 +685,8 @@
         <f>1.529526 *24</f>
         <v>36.708624</v>
       </c>
-      <c r="C14" s="1">
-        <v>15081</v>
+      <c r="C14" s="7">
+        <v>15090</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,7 +698,7 @@
         <v>35.414423999999997</v>
       </c>
       <c r="C15" s="2">
-        <v>15034</v>
+        <v>15042</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -692,7 +710,7 @@
         <v>33.86016</v>
       </c>
       <c r="C16" s="6">
-        <v>14131</v>
+        <v>14140</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -704,7 +722,7 @@
         <v>35.171592000000004</v>
       </c>
       <c r="C17" s="3">
-        <v>14065</v>
+        <v>14067</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,7 +734,7 @@
         <v>31.022328000000002</v>
       </c>
       <c r="C18" s="5">
-        <v>14038</v>
+        <v>14041</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,7 +742,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>13138</v>
+        <v>13140</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,8 +753,11 @@
         <f>1.201815 *24</f>
         <v>28.843560000000004</v>
       </c>
-      <c r="C20" s="3">
-        <v>13091</v>
+      <c r="C20" s="7">
+        <v>15099</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,8 +768,11 @@
         <f>1.162717*24</f>
         <v>27.905208000000002</v>
       </c>
-      <c r="C21" s="2">
-        <v>13040</v>
+      <c r="C21" s="8">
+        <v>15153</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,7 +784,7 @@
         <v>26.460647999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>12145</v>
+        <v>12148</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,7 +796,7 @@
         <v>25.35324</v>
       </c>
       <c r="C23" s="6">
-        <v>140152</v>
+        <v>14150</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -787,7 +811,7 @@
         <v>24.065688000000002</v>
       </c>
       <c r="C24" s="5">
-        <v>14048</v>
+        <v>14046</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -801,7 +825,7 @@
         <v>22.98638</v>
       </c>
       <c r="C25" s="4">
-        <v>13151</v>
+        <v>13149</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -815,7 +839,7 @@
         <v>19.31456</v>
       </c>
       <c r="C26" s="3">
-        <v>14100</v>
+        <v>14099</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -840,7 +864,7 @@
         <v>17.762119999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>15050</v>
+        <v>15048</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A7D7D-BEF7-4FE2-A91F-D494F2535585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741699B5-0070-46CC-A91D-1806A4A14B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -674,7 +674,7 @@
         <v>35.474328</v>
       </c>
       <c r="C13" s="8">
-        <v>15150</v>
+        <v>15151</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>36.708624</v>
       </c>
       <c r="C14" s="7">
-        <v>15090</v>
+        <v>15091</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>35.414423999999997</v>
       </c>
       <c r="C15" s="2">
-        <v>15042</v>
+        <v>15044</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>33.86016</v>
       </c>
       <c r="C16" s="6">
-        <v>14140</v>
+        <v>14141</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>35.171592000000004</v>
       </c>
       <c r="C17" s="3">
-        <v>14067</v>
+        <v>14068</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>31.022328000000002</v>
       </c>
       <c r="C18" s="5">
-        <v>14041</v>
+        <v>14042</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>13140</v>
+        <v>13141</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>28.843560000000004</v>
       </c>
       <c r="C20" s="7">
-        <v>15099</v>
+        <v>15098</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -769,7 +769,7 @@
         <v>27.905208000000002</v>
       </c>
       <c r="C21" s="8">
-        <v>15153</v>
+        <v>15151</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -784,7 +784,7 @@
         <v>26.460647999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>12148</v>
+        <v>12150</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>25.35324</v>
       </c>
       <c r="C23" s="6">
-        <v>14150</v>
+        <v>14149</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -811,7 +811,7 @@
         <v>24.065688000000002</v>
       </c>
       <c r="C24" s="5">
-        <v>14046</v>
+        <v>14045</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -825,7 +825,7 @@
         <v>22.98638</v>
       </c>
       <c r="C25" s="4">
-        <v>13149</v>
+        <v>13147</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -839,7 +839,7 @@
         <v>19.31456</v>
       </c>
       <c r="C26" s="3">
-        <v>14099</v>
+        <v>14096</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -853,7 +853,7 @@
         <v>18.645409999999998</v>
       </c>
       <c r="C27" s="1">
-        <v>20008</v>
+        <v>20011</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>17.762119999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>15048</v>
+        <v>15047</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741699B5-0070-46CC-A91D-1806A4A14B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31FC9FA-103E-4818-8E39-B223B691F30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -686,7 +686,7 @@
         <v>36.708624</v>
       </c>
       <c r="C14" s="7">
-        <v>15091</v>
+        <v>15092</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>35.171592000000004</v>
       </c>
       <c r="C17" s="3">
-        <v>14068</v>
+        <v>14069</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>25.35324</v>
       </c>
       <c r="C23" s="6">
-        <v>14149</v>
+        <v>14148</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -811,7 +811,7 @@
         <v>24.065688000000002</v>
       </c>
       <c r="C24" s="5">
-        <v>14045</v>
+        <v>14044</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -864,7 +864,7 @@
         <v>17.762119999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>15047</v>
+        <v>15046</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -889,7 +889,7 @@
         <v>16.010649999999998</v>
       </c>
       <c r="C30" s="1">
-        <v>20050</v>
+        <v>20061</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31FC9FA-103E-4818-8E39-B223B691F30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD52425D-FD7B-4377-B3AD-0CD11191D50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,12 +528,12 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +545,7 @@
         <v>19122</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -553,7 +553,7 @@
         <v>19072</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -561,7 +561,7 @@
         <v>19024</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -573,7 +573,7 @@
         <v>18129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -585,7 +585,7 @@
         <v>18078</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -593,7 +593,7 @@
         <v>18030</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -605,7 +605,7 @@
         <v>17130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -617,7 +617,7 @@
         <v>17085</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -629,7 +629,7 @@
         <v>17031</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -641,7 +641,7 @@
         <v>16130</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -653,7 +653,7 @@
         <v>16081</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -665,7 +665,7 @@
         <v>16031</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -674,10 +674,13 @@
         <v>35.474328</v>
       </c>
       <c r="C13" s="8">
-        <v>15151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16050</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -689,7 +692,7 @@
         <v>15092</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -701,7 +704,7 @@
         <v>15044</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD52425D-FD7B-4377-B3AD-0CD11191D50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9A6323-16F8-42B3-8084-80003943A42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,7 @@
         <v>35.414423999999997</v>
       </c>
       <c r="C15" s="2">
-        <v>15044</v>
+        <v>15045</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>13141</v>
+        <v>13143</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>28.843560000000004</v>
       </c>
       <c r="C20" s="7">
-        <v>15098</v>
+        <v>15096</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -787,7 +787,7 @@
         <v>26.460647999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>12150</v>
+        <v>12152</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>22.98638</v>
       </c>
       <c r="C25" s="4">
-        <v>13147</v>
+        <v>13146</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -842,7 +842,7 @@
         <v>19.31456</v>
       </c>
       <c r="C26" s="3">
-        <v>14096</v>
+        <v>14095</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9A6323-16F8-42B3-8084-80003943A42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F78040-3928-4AC3-BE16-083E08B7E6F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +156,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +208,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -243,6 +290,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,15 +599,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,27 +615,27 @@
         <f>2.234346 *24</f>
         <v>53.624303999999995</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="16">
         <v>19122</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>19072</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>19024</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -569,11 +643,11 @@
         <f>2.031288 *24</f>
         <v>48.750912</v>
       </c>
-      <c r="C4" s="1">
-        <v>18129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="14">
+        <v>18139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -581,19 +655,20 @@
         <f>1.980087 *24</f>
         <v>47.522087999999997</v>
       </c>
-      <c r="C5" s="1">
-        <v>18078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="13">
+        <v>18088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>18030</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
+        <v>18041</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -601,11 +676,11 @@
         <f>1.838421 *24</f>
         <v>44.122104</v>
       </c>
-      <c r="C7" s="1">
-        <v>17130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="12">
+        <v>17142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -613,11 +688,11 @@
         <f>1.807 *24</f>
         <v>43.367999999999995</v>
       </c>
-      <c r="C8" s="1">
-        <v>17085</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="11">
+        <v>17093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -625,11 +700,11 @@
         <f>1.776483 *24</f>
         <v>42.635592000000003</v>
       </c>
-      <c r="C9" s="1">
-        <v>17031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>17045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -637,11 +712,11 @@
         <f>1.718746 *24</f>
         <v>41.249904000000001</v>
       </c>
-      <c r="C10" s="1">
-        <v>16130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="10">
+        <v>16144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -649,11 +724,11 @@
         <f>1.676327 *24</f>
         <v>40.231847999999999</v>
       </c>
-      <c r="C11" s="1">
-        <v>16081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
+        <v>16095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -661,11 +736,11 @@
         <f>1.62301 *24</f>
         <v>38.952240000000003</v>
       </c>
-      <c r="C12" s="1">
-        <v>16031</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="8">
+        <v>16045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -674,13 +749,13 @@
         <v>35.474328</v>
       </c>
       <c r="C13" s="8">
-        <v>16050</v>
+        <v>16047</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -689,10 +764,13 @@
         <v>36.708624</v>
       </c>
       <c r="C14" s="7">
-        <v>15092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19050</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -700,11 +778,14 @@
         <f>1.475601 *24</f>
         <v>35.414423999999997</v>
       </c>
-      <c r="C15" s="2">
-        <v>15045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="11">
+        <v>17099</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -713,7 +794,7 @@
         <v>33.86016</v>
       </c>
       <c r="C16" s="6">
-        <v>14141</v>
+        <v>19100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,7 +806,7 @@
         <v>35.171592000000004</v>
       </c>
       <c r="C17" s="3">
-        <v>14069</v>
+        <v>14072</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,8 +817,11 @@
         <f>1.292597*24</f>
         <v>31.022328000000002</v>
       </c>
-      <c r="C18" s="5">
-        <v>14042</v>
+      <c r="C18" s="12">
+        <v>17153</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>13143</v>
+        <v>18050</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,8 +840,8 @@
         <f>1.201815 *24</f>
         <v>28.843560000000004</v>
       </c>
-      <c r="C20" s="7">
-        <v>15096</v>
+      <c r="C20" s="17">
+        <v>19151</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -771,8 +855,8 @@
         <f>1.162717*24</f>
         <v>27.905208000000002</v>
       </c>
-      <c r="C21" s="8">
-        <v>15151</v>
+      <c r="C21" s="9">
+        <v>16098</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -786,8 +870,11 @@
         <f>1.102527 *24</f>
         <v>26.460647999999999</v>
       </c>
-      <c r="C22" s="1">
-        <v>12152</v>
+      <c r="C22" s="13">
+        <v>18100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,7 +886,7 @@
         <v>25.35324</v>
       </c>
       <c r="C23" s="6">
-        <v>14148</v>
+        <v>14145</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -814,7 +901,7 @@
         <v>24.065688000000002</v>
       </c>
       <c r="C24" s="5">
-        <v>14044</v>
+        <v>16151</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -827,8 +914,8 @@
       <c r="B25">
         <v>22.98638</v>
       </c>
-      <c r="C25" s="4">
-        <v>13146</v>
+      <c r="C25" s="14">
+        <v>18153</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -842,7 +929,7 @@
         <v>19.31456</v>
       </c>
       <c r="C26" s="3">
-        <v>14095</v>
+        <v>14092</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -867,7 +954,7 @@
         <v>17.762119999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>15046</v>
+        <v>17048</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F78040-3928-4AC3-BE16-083E08B7E6F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1CB4FD-BEFA-4A1F-968A-0794091B3F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,7 +162,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -317,6 +323,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -796,6 +805,9 @@
       <c r="C16" s="6">
         <v>19100</v>
       </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -871,7 +883,7 @@
         <v>26.460647999999999</v>
       </c>
       <c r="C22" s="13">
-        <v>18100</v>
+        <v>18099</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
@@ -885,8 +897,8 @@
         <f>1.056385 *24</f>
         <v>25.35324</v>
       </c>
-      <c r="C23" s="6">
-        <v>14145</v>
+      <c r="C23" s="18">
+        <v>20050</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -915,7 +927,7 @@
         <v>22.98638</v>
       </c>
       <c r="C25" s="14">
-        <v>18153</v>
+        <v>18152</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -942,7 +954,7 @@
       <c r="B27" s="1">
         <v>18.645409999999998</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="18">
         <v>20011</v>
       </c>
     </row>
@@ -986,11 +998,14 @@
       <c r="A32">
         <v>10</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>11</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>12</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1CB4FD-BEFA-4A1F-968A-0794091B3F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2471E2-5445-4FBF-973C-C76DD0674329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,7 +162,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -326,6 +332,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -625,7 +634,7 @@
         <v>53.624303999999995</v>
       </c>
       <c r="C1" s="16">
-        <v>19122</v>
+        <v>19134</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>19072</v>
+        <v>19083</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7">
-        <v>19024</v>
+        <v>19035</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -653,7 +662,7 @@
         <v>48.750912</v>
       </c>
       <c r="C4" s="14">
-        <v>18139</v>
+        <v>18140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,7 +674,7 @@
         <v>47.522087999999997</v>
       </c>
       <c r="C5" s="13">
-        <v>18088</v>
+        <v>18089</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>18041</v>
+        <v>18042</v>
       </c>
       <c r="E6" s="15"/>
     </row>
@@ -698,7 +707,7 @@
         <v>43.367999999999995</v>
       </c>
       <c r="C8" s="11">
-        <v>17093</v>
+        <v>17094</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,7 +719,7 @@
         <v>42.635592000000003</v>
       </c>
       <c r="C9" s="2">
-        <v>17045</v>
+        <v>17046</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,7 +731,7 @@
         <v>41.249904000000001</v>
       </c>
       <c r="C10" s="10">
-        <v>16144</v>
+        <v>16145</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,7 +743,7 @@
         <v>40.231847999999999</v>
       </c>
       <c r="C11" s="9">
-        <v>16095</v>
+        <v>16096</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,7 +755,7 @@
         <v>38.952240000000003</v>
       </c>
       <c r="C12" s="8">
-        <v>16045</v>
+        <v>16046</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,8 +766,8 @@
         <f>1.478097*24</f>
         <v>35.474328</v>
       </c>
-      <c r="C13" s="8">
-        <v>16047</v>
+      <c r="C13" s="19">
+        <v>20100</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -773,7 +782,7 @@
         <v>36.708624</v>
       </c>
       <c r="C14" s="7">
-        <v>19050</v>
+        <v>19049</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -788,7 +797,7 @@
         <v>35.414423999999997</v>
       </c>
       <c r="C15" s="11">
-        <v>17099</v>
+        <v>17098</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -803,7 +812,7 @@
         <v>33.86016</v>
       </c>
       <c r="C16" s="6">
-        <v>19100</v>
+        <v>19099</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -818,7 +827,7 @@
         <v>35.171592000000004</v>
       </c>
       <c r="C17" s="3">
-        <v>14072</v>
+        <v>14073</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -830,7 +839,7 @@
         <v>31.022328000000002</v>
       </c>
       <c r="C18" s="12">
-        <v>17153</v>
+        <v>17152</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
@@ -841,7 +850,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>18050</v>
+        <v>18049</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,7 +880,7 @@
         <v>27.905208000000002</v>
       </c>
       <c r="C21" s="9">
-        <v>16098</v>
+        <v>16097</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -913,7 +925,7 @@
         <v>24.065688000000002</v>
       </c>
       <c r="C24" s="5">
-        <v>16151</v>
+        <v>16150</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -941,7 +953,7 @@
         <v>19.31456</v>
       </c>
       <c r="C26" s="3">
-        <v>14092</v>
+        <v>14091</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -955,7 +967,7 @@
         <v>18.645409999999998</v>
       </c>
       <c r="C27" s="18">
-        <v>20011</v>
+        <v>20015</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,7 +978,7 @@
         <v>17.762119999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>17048</v>
+        <v>17047</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -990,7 +1002,7 @@
       <c r="B30" s="1">
         <v>16.010649999999998</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="19">
         <v>20061</v>
       </c>
     </row>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2471E2-5445-4FBF-973C-C76DD0674329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32C531-5CEE-4C8D-854C-ECCC442D06F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>19083</v>
+        <v>19084</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7">
-        <v>19035</v>
+        <v>19036</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>48.750912</v>
       </c>
       <c r="C4" s="14">
-        <v>18140</v>
+        <v>18141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>47.522087999999997</v>
       </c>
       <c r="C5" s="13">
-        <v>18089</v>
+        <v>18090</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>18042</v>
+        <v>18043</v>
       </c>
       <c r="E6" s="15"/>
     </row>
@@ -695,7 +695,7 @@
         <v>44.122104</v>
       </c>
       <c r="C7" s="12">
-        <v>17142</v>
+        <v>17143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>43.367999999999995</v>
       </c>
       <c r="C8" s="11">
-        <v>17094</v>
+        <v>17095</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>42.635592000000003</v>
       </c>
       <c r="C9" s="2">
-        <v>17046</v>
+        <v>17047</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>41.249904000000001</v>
       </c>
       <c r="C10" s="10">
-        <v>16145</v>
+        <v>16146</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>40.231847999999999</v>
       </c>
       <c r="C11" s="9">
-        <v>16096</v>
+        <v>16097</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>38.952240000000003</v>
       </c>
       <c r="C12" s="8">
-        <v>16046</v>
+        <v>16047</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>35.474328</v>
       </c>
       <c r="C13" s="19">
-        <v>20100</v>
+        <v>20099</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -797,7 +797,7 @@
         <v>35.414423999999997</v>
       </c>
       <c r="C15" s="11">
-        <v>17098</v>
+        <v>17097</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -827,7 +827,7 @@
         <v>35.171592000000004</v>
       </c>
       <c r="C17" s="3">
-        <v>14073</v>
+        <v>14074</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
         <v>28.843560000000004</v>
       </c>
       <c r="C20" s="17">
-        <v>19151</v>
+        <v>19150</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -880,7 +880,7 @@
         <v>27.905208000000002</v>
       </c>
       <c r="C21" s="9">
-        <v>16097</v>
+        <v>16096</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -895,7 +895,7 @@
         <v>26.460647999999999</v>
       </c>
       <c r="C22" s="13">
-        <v>18099</v>
+        <v>18098</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
@@ -910,7 +910,7 @@
         <v>25.35324</v>
       </c>
       <c r="C23" s="18">
-        <v>20050</v>
+        <v>20049</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -925,7 +925,7 @@
         <v>24.065688000000002</v>
       </c>
       <c r="C24" s="5">
-        <v>16150</v>
+        <v>16149</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -939,7 +939,7 @@
         <v>22.98638</v>
       </c>
       <c r="C25" s="14">
-        <v>18152</v>
+        <v>18151</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -953,7 +953,7 @@
         <v>19.31456</v>
       </c>
       <c r="C26" s="3">
-        <v>14091</v>
+        <v>14090</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -978,7 +978,7 @@
         <v>17.762119999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>17047</v>
+        <v>17046</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -992,7 +992,7 @@
         <v>16.905760000000001</v>
       </c>
       <c r="C29" s="1">
-        <v>20104</v>
+        <v>20113</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>16.010649999999998</v>
       </c>
       <c r="C30" s="19">
-        <v>20061</v>
+        <v>20064</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32C531-5CEE-4C8D-854C-ECCC442D06F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACBCCAD-F6DD-450F-AE52-B2B297CC98B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,7 +162,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,12 +202,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -319,22 +313,16 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -633,69 +621,86 @@
         <f>2.234346 *24</f>
         <v>53.624303999999995</v>
       </c>
-      <c r="C1" s="16">
-        <v>19134</v>
+      <c r="C1" s="15">
+        <v>19135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>19084</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <f>1.465483 *24</f>
+        <v>35.171592000000004</v>
+      </c>
+      <c r="C2" s="3">
+        <v>14075</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>19036</v>
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <f>1.475601 *24</f>
+        <v>35.414423999999997</v>
+      </c>
+      <c r="C3" s="3">
+        <v>14080</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f>2.031288 *24</f>
-        <v>48.750912</v>
-      </c>
-      <c r="C4" s="14">
-        <v>18141</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>19.31456</v>
+      </c>
+      <c r="C4" s="3">
+        <v>14088</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <f>1.980087 *24</f>
-        <v>47.522087999999997</v>
-      </c>
-      <c r="C5" s="13">
-        <v>18090</v>
+        <f>1.718746 *24</f>
+        <v>41.249904000000001</v>
+      </c>
+      <c r="C5" s="9">
+        <v>16147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>18043</v>
-      </c>
-      <c r="E6" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <f>1.002737 *24</f>
+        <v>24.065688000000002</v>
+      </c>
+      <c r="C6" s="5">
+        <v>16148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <f>1.838421 *24</f>
-        <v>44.122104</v>
-      </c>
-      <c r="C7" s="12">
-        <v>17143</v>
+        <f>1.776483 *24</f>
+        <v>42.635592000000003</v>
+      </c>
+      <c r="C7" s="2">
+        <v>17048</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -706,321 +711,290 @@
         <f>1.807 *24</f>
         <v>43.367999999999995</v>
       </c>
-      <c r="C8" s="11">
-        <v>17095</v>
+      <c r="C8" s="10">
+        <v>17096</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <f>1.776483 *24</f>
-        <v>42.635592000000003</v>
-      </c>
-      <c r="C9" s="2">
-        <v>17047</v>
+        <f>1.838421 *24</f>
+        <v>44.122104</v>
+      </c>
+      <c r="C9" s="11">
+        <v>17144</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <f>1.718746 *24</f>
-        <v>41.249904000000001</v>
-      </c>
-      <c r="C10" s="10">
-        <v>16146</v>
+        <f>1.292597*24</f>
+        <v>31.022328000000002</v>
+      </c>
+      <c r="C10" s="11">
+        <v>17151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>18044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>18048</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f>1.980087 *24</f>
+        <v>47.522087999999997</v>
+      </c>
+      <c r="C13" s="12">
+        <v>18091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <f>1.102527 *24</f>
+        <v>26.460647999999999</v>
+      </c>
+      <c r="C14" s="12">
+        <v>18097</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <f>2.031288 *24</f>
+        <v>48.750912</v>
+      </c>
+      <c r="C15" s="13">
+        <v>18142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>22.98638</v>
+      </c>
+      <c r="C16" s="13">
+        <v>18150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>19037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <f>1.529526 *24</f>
+        <v>36.708624</v>
+      </c>
+      <c r="C18" s="7">
+        <v>19048</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>19085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <f>1.41084 *24</f>
+        <v>33.86016</v>
+      </c>
+      <c r="C20" s="6">
+        <v>19098</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f>1.201815 *24</f>
+        <v>28.843560000000004</v>
+      </c>
+      <c r="C21" s="15">
+        <v>19149</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <v>18.645409999999998</v>
+      </c>
+      <c r="C22" s="16">
+        <v>20016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <f>1.62301 *24</f>
+        <v>38.952240000000003</v>
+      </c>
+      <c r="C23" s="16">
+        <v>20030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f>1.056385 *24</f>
+        <v>25.35324</v>
+      </c>
+      <c r="C24" s="16">
+        <v>20048</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <v>16.010649999999998</v>
+      </c>
+      <c r="C25" s="17">
+        <v>20065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <f>1.162717*24</f>
+        <v>27.905208000000002</v>
+      </c>
+      <c r="C26" s="17">
+        <v>20080</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <f>1.478097*24</f>
+        <v>35.474328</v>
+      </c>
+      <c r="C27" s="17">
+        <v>20099</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>16.905760000000001</v>
+      </c>
+      <c r="C28" s="8">
+        <v>20114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>17.762119999999999</v>
+      </c>
+      <c r="C29" s="8">
+        <v>20122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B30">
         <f>1.676327 *24</f>
         <v>40.231847999999999</v>
       </c>
-      <c r="C11" s="9">
-        <v>16097</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f>1.62301 *24</f>
-        <v>38.952240000000003</v>
-      </c>
-      <c r="C12" s="8">
-        <v>16047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f>1.478097*24</f>
-        <v>35.474328</v>
-      </c>
-      <c r="C13" s="19">
-        <v>20099</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f>1.529526 *24</f>
-        <v>36.708624</v>
-      </c>
-      <c r="C14" s="7">
-        <v>19049</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f>1.475601 *24</f>
-        <v>35.414423999999997</v>
-      </c>
-      <c r="C15" s="11">
-        <v>17097</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f>1.41084 *24</f>
-        <v>33.86016</v>
-      </c>
-      <c r="C16" s="6">
-        <v>19099</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <f>1.465483 *24</f>
-        <v>35.171592000000004</v>
-      </c>
-      <c r="C17" s="3">
-        <v>14074</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f>1.292597*24</f>
-        <v>31.022328000000002</v>
-      </c>
-      <c r="C18" s="12">
-        <v>17152</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4">
-        <v>18049</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <f>1.201815 *24</f>
-        <v>28.843560000000004</v>
-      </c>
-      <c r="C20" s="17">
-        <v>19150</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f>1.162717*24</f>
-        <v>27.905208000000002</v>
-      </c>
-      <c r="C21" s="9">
-        <v>16096</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <f>1.102527 *24</f>
-        <v>26.460647999999999</v>
-      </c>
-      <c r="C22" s="13">
-        <v>18098</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <f>1.056385 *24</f>
-        <v>25.35324</v>
-      </c>
-      <c r="C23" s="18">
-        <v>20049</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <f>1.002737 *24</f>
-        <v>24.065688000000002</v>
-      </c>
-      <c r="C24" s="5">
-        <v>16149</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>22.98638</v>
-      </c>
-      <c r="C25" s="14">
-        <v>18151</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>19.31456</v>
-      </c>
-      <c r="C26" s="3">
-        <v>14090</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>18.645409999999998</v>
-      </c>
-      <c r="C27" s="18">
-        <v>20015</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>17.762119999999999</v>
-      </c>
-      <c r="C28" s="2">
-        <v>17046</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>16.905760000000001</v>
-      </c>
-      <c r="C29" s="1">
-        <v>20113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>16.010649999999998</v>
-      </c>
-      <c r="C30" s="19">
-        <v>20064</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>12</v>
-      </c>
-      <c r="D32">
-        <v>13</v>
+      <c r="C30" s="8">
+        <v>20134</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
+    <sortCondition ref="C1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACBCCAD-F6DD-450F-AE52-B2B297CC98B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36419DE9-8999-44CD-92B1-BA6D2CACB5FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +131,10 @@
   </si>
   <si>
     <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,11 +279,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -605,395 +609,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <f>2.234346 *24</f>
-        <v>53.624303999999995</v>
-      </c>
-      <c r="C1" s="15">
-        <v>19135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="14">
+        <v>19136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1">
-        <f>1.465483 *24</f>
-        <v>35.171592000000004</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B3" s="2">
         <v>14075</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <f>1.475601 *24</f>
-        <v>35.414423999999997</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B4" s="2">
         <v>14080</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1">
-        <v>19.31456</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B5" s="2">
         <v>14088</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <f>1.718746 *24</f>
-        <v>41.249904000000001</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B6" s="8">
         <v>16147</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
-        <f>1.002737 *24</f>
-        <v>24.065688000000002</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B7" s="4">
         <v>16148</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <f>1.776483 *24</f>
-        <v>42.635592000000003</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B8" s="1">
         <v>17048</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>1.807 *24</f>
-        <v>43.367999999999995</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B9" s="9">
         <v>17096</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <f>1.838421 *24</f>
-        <v>44.122104</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B10" s="10">
         <v>17144</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
-        <f>1.292597*24</f>
-        <v>31.022328000000002</v>
-      </c>
-      <c r="C10" s="11">
-        <v>17151</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="10">
+        <v>17150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="B12" s="3">
         <v>18044</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4">
-        <v>18048</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="3">
+        <v>18047</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
-        <f>1.980087 *24</f>
-        <v>47.522087999999997</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B14" s="11">
         <v>18091</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <f>1.102527 *24</f>
-        <v>26.460647999999999</v>
-      </c>
-      <c r="C14" s="12">
-        <v>18097</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15">
-        <f>2.031288 *24</f>
-        <v>48.750912</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="12">
         <v>18142</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16">
-        <v>22.98638</v>
-      </c>
-      <c r="C16" s="13">
-        <v>18150</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>18149</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="7">
+      <c r="B17" s="6">
         <v>19037</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
-        <f>1.529526 *24</f>
-        <v>36.708624</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="6">
         <v>19048</v>
       </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="6">
+      <c r="B19" s="5">
         <v>19085</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B20">
-        <f>1.41084 *24</f>
-        <v>33.86016</v>
-      </c>
-      <c r="C20" s="6">
-        <v>19098</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>19097</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <f>1.201815 *24</f>
-        <v>28.843560000000004</v>
-      </c>
-      <c r="C21" s="15">
-        <v>19149</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <v>19148</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1">
-        <v>18.645409999999998</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B22" s="15">
         <v>20016</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23">
-        <f>1.62301 *24</f>
-        <v>38.952240000000003</v>
-      </c>
-      <c r="C23" s="16">
+      <c r="B23" s="15">
         <v>20030</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
-        <f>1.056385 *24</f>
-        <v>25.35324</v>
-      </c>
-      <c r="C24" s="16">
+      <c r="B24" s="15">
         <v>20048</v>
       </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="1">
-        <v>16.010649999999998</v>
-      </c>
-      <c r="C25" s="17">
+      <c r="B25" s="16">
         <v>20065</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26">
-        <f>1.162717*24</f>
-        <v>27.905208000000002</v>
-      </c>
-      <c r="C26" s="17">
+      <c r="B26" s="16">
         <v>20080</v>
       </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27">
-        <f>1.478097*24</f>
-        <v>35.474328</v>
-      </c>
-      <c r="C27" s="17">
-        <v>20099</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="16">
+        <v>20098</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
-        <v>16.905760000000001</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="7">
         <v>20114</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
-        <v>17.762119999999999</v>
-      </c>
-      <c r="C29" s="8">
+      <c r="B29" s="7">
         <v>20122</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30">
-        <f>1.676327 *24</f>
-        <v>40.231847999999999</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="B30" s="7">
         <v>20134</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
-    <sortCondition ref="C1"/>
+  <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C31">
+    <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36419DE9-8999-44CD-92B1-BA6D2CACB5FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DAB1EE-4B2A-43F8-ACEB-83DB13F4D7FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
   </si>
   <si>
     <t>up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +165,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +174,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -196,12 +186,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -215,18 +199,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -305,28 +277,16 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -621,7 +581,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="10">
         <v>19136</v>
       </c>
     </row>
@@ -629,24 +589,24 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2">
-        <v>14075</v>
+      <c r="B3" s="1">
+        <v>14076</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
-        <v>14080</v>
+      <c r="B4" s="1">
+        <v>14081</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2">
-        <v>14088</v>
+      <c r="B5" s="1">
+        <v>14087</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -654,54 +614,57 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8">
-        <v>16147</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>17145</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4">
-        <v>16148</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="6">
+        <v>17150</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>17048</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>18045</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9">
-        <v>17096</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="2">
+        <v>18047</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="10">
-        <v>17144</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
+        <v>18092</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="10">
-        <v>17150</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="7">
+        <v>18096</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -709,45 +672,45 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3">
-        <v>18044</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="8">
+        <v>18142</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3">
-        <v>18047</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>18145</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="11">
-        <v>18091</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="8">
+        <v>18149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="12">
-        <v>18142</v>
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>19037</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="12">
-        <v>18149</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>19048</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -755,105 +718,99 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6">
-        <v>19037</v>
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>19085</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6">
-        <v>19048</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="B18" s="3">
+        <v>19090</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5">
-        <v>19085</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>19097</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="5">
-        <v>19097</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="B20" s="10">
+        <v>19140</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="14">
-        <v>19148</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="B21" s="10">
+        <v>19143</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="15">
-        <v>20016</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="10">
+        <v>19148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="15">
-        <v>20030</v>
+        <v>26</v>
+      </c>
+      <c r="B23" s="11">
+        <v>20017</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="15">
-        <v>20048</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="B24" s="11">
+        <v>20031</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="16">
-        <v>20065</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="11">
+        <v>20047</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="16">
-        <v>20080</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B26" s="12">
+        <v>20066</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="16">
-        <v>20098</v>
+        <v>20</v>
+      </c>
+      <c r="B27" s="12">
+        <v>20079</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -861,37 +818,37 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="7">
-        <v>20114</v>
+        <v>12</v>
+      </c>
+      <c r="B28" s="12">
+        <v>20098</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="7">
-        <v>20122</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>20115</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="7">
-        <v>20134</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="5">
+        <v>20122</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="B31" s="5">
+        <v>20133</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -900,7 +857,7 @@
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C31">
-    <sortCondition ref="B1"/>
+    <sortCondition ref="B4"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DAB1EE-4B2A-43F8-ACEB-83DB13F4D7FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99753E70-24F4-4D1E-B2DB-8889C16533BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10">
-        <v>19136</v>
+        <v>19137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>14076</v>
+        <v>14077</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>14081</v>
+        <v>14082</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="1">
-        <v>14087</v>
+        <v>14086</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>17145</v>
+        <v>17146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="6">
-        <v>17150</v>
+        <v>17149</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>18045</v>
+        <v>18046</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="2">
-        <v>18047</v>
+        <v>18046</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="7">
-        <v>18092</v>
+        <v>18093</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="7">
-        <v>18096</v>
+        <v>18095</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -675,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="8">
-        <v>18142</v>
+        <v>18143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="8">
-        <v>18149</v>
+        <v>18148</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="4">
-        <v>19037</v>
+        <v>19038</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4">
-        <v>19048</v>
+        <v>19047</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3">
-        <v>19085</v>
+        <v>19086</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="3">
-        <v>19090</v>
+        <v>19092</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="3">
-        <v>19097</v>
+        <v>19096</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -764,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10">
-        <v>19148</v>
+        <v>19147</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -840,7 +840,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5">
-        <v>20122</v>
+        <v>20123</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99753E70-24F4-4D1E-B2DB-8889C16533BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B555EC-D55D-4C4D-9798-FB013E389D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="8">
-        <v>18145</v>
+        <v>18146</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="3">
-        <v>19092</v>
+        <v>19093</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="10">
-        <v>19140</v>
+        <v>19141</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="10">
-        <v>19143</v>
+        <v>19144</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="11">
-        <v>20017</v>
+        <v>20018</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="11">
-        <v>20031</v>
+        <v>20032</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="11">
-        <v>20047</v>
+        <v>20046</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -802,7 +802,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="12">
-        <v>20066</v>
+        <v>20067</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="12">
-        <v>20079</v>
+        <v>20078</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -832,7 +832,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5">
-        <v>20115</v>
+        <v>20116</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="5">
-        <v>20133</v>
+        <v>20132</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B555EC-D55D-4C4D-9798-FB013E389D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397819F6-D7CB-4460-812A-FB13F3C4AC75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,7 +165,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +175,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -274,19 +268,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -581,7 +572,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>19137</v>
       </c>
     </row>
@@ -590,7 +581,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>14077</v>
+        <v>14078</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>14082</v>
+        <v>14083</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -606,7 +597,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="1">
-        <v>14086</v>
+        <v>14085</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -616,55 +607,52 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
-        <v>17146</v>
+      <c r="B6" s="5">
+        <v>17147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6">
-        <v>17149</v>
+      <c r="B7" s="5">
+        <v>17148</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>18046</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>18094</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2">
-        <v>18046</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
+        <v>18144</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>18093</v>
+        <v>18146</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7">
-        <v>18095</v>
+        <v>18147</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -672,45 +660,45 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8">
-        <v>18143</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>19039</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8">
-        <v>18146</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>19046</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="8">
-        <v>18148</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>19087</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4">
-        <v>19038</v>
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <v>19094</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4">
-        <v>19047</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>19096</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -718,26 +706,26 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3">
-        <v>19086</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="9">
+        <v>19141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="3">
-        <v>19093</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="9">
+        <v>19144</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3">
-        <v>19096</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="9">
+        <v>19147</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -745,53 +733,53 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B20" s="10">
-        <v>19141</v>
+        <v>20018</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B21" s="10">
-        <v>19144</v>
+        <v>20029</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B22" s="10">
-        <v>19147</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
+        <v>20032</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="11">
-        <v>20018</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>20046</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B24" s="11">
-        <v>20032</v>
+        <v>20067</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="11">
-        <v>20046</v>
+        <v>20078</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -799,29 +787,26 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="12">
-        <v>20067</v>
+        <v>21</v>
+      </c>
+      <c r="B26" s="11">
+        <v>20080</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="12">
-        <v>20078</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="B27" s="11">
+        <v>20090</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="12">
-        <v>20098</v>
+      <c r="B28" s="11">
+        <v>20097</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -831,7 +816,7 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>20116</v>
       </c>
     </row>
@@ -839,15 +824,15 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="5">
-        <v>20123</v>
+      <c r="B30" s="4">
+        <v>20124</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>20132</v>
       </c>
       <c r="C31" t="s">
@@ -857,7 +842,7 @@
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C31">
-    <sortCondition ref="B4"/>
+    <sortCondition ref="B7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397819F6-D7CB-4460-812A-FB13F3C4AC75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499329FB-C6C8-4DA2-9063-ADB9C9FF7A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9">
-        <v>19137</v>
+        <v>19138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>19096</v>
+        <v>19095</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -725,7 +725,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="9">
-        <v>19147</v>
+        <v>19146</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499329FB-C6C8-4DA2-9063-ADB9C9FF7A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BAC653-D6E5-407A-B539-A7C9CB7422EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>14078</v>
+        <v>14079</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,70 +589,67 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>14083</v>
+        <v>14084</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1">
-        <v>14085</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>17147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
-        <v>17147</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>18094</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5">
-        <v>17148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>18144</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>18094</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>18147</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7">
-        <v>18144</v>
+        <v>18147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>18146</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>19040</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="7">
-        <v>18147</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>19045</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -660,72 +657,75 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3">
-        <v>19039</v>
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>19087</v>
+      </c>
+      <c r="C12">
+        <v>19090</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>19046</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>19090</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>19087</v>
+        <v>19094</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2">
-        <v>19094</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="9">
+        <v>19142</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>19095</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="9">
+        <v>19145</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9">
-        <v>19141</v>
+        <v>19146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="9">
-        <v>19144</v>
+        <v>26</v>
+      </c>
+      <c r="B18" s="10">
+        <v>20019</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="9">
-        <v>19146</v>
+        <v>5</v>
+      </c>
+      <c r="B19" s="10">
+        <v>20029</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -733,34 +733,37 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B20" s="10">
-        <v>20018</v>
+        <v>20033</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B21" s="10">
-        <v>20029</v>
+        <v>20045</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10">
-        <v>20032</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="11">
+        <v>20068</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="10">
-        <v>20046</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="11">
+        <v>20077</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -768,56 +771,59 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B24" s="11">
-        <v>20067</v>
+        <v>20080</v>
+      </c>
+      <c r="C24">
+        <v>20085</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B25" s="11">
-        <v>20078</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
+        <v>20085</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B26" s="11">
-        <v>20080</v>
+        <v>20090</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B27" s="11">
-        <v>20090</v>
+        <v>20097</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="11">
-        <v>20097</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="4">
+        <v>20117</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B29" s="4">
-        <v>20116</v>
+        <v>20119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="4">
-        <v>20132</v>
+        <v>20131</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -842,7 +848,7 @@
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C31">
-    <sortCondition ref="B7"/>
+    <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BAC653-D6E5-407A-B539-A7C9CB7422EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E21AEB-DE3E-49E4-B2F2-605E899B4926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,7 +165,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,18 +193,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -262,22 +250,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,7 +545,7 @@
   <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -572,8 +554,11 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
-        <v>19138</v>
+      <c r="B2" s="7">
+        <v>19139</v>
+      </c>
+      <c r="C2">
+        <v>19141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -594,62 +579,68 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>17147</v>
+        <v>18145</v>
+      </c>
+      <c r="C5">
+        <v>18146</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>18094</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>18147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7">
-        <v>18144</v>
-      </c>
-      <c r="D7" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>19040</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>18147</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>19045</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7">
-        <v>18147</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>19088</v>
+      </c>
+      <c r="C9">
+        <v>19090</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3">
-        <v>19040</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>19090</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3">
-        <v>19045</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>19094</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -657,75 +648,81 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>19087</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="7">
+        <v>19142</v>
       </c>
       <c r="C12">
-        <v>19090</v>
+        <v>19144</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2">
-        <v>19090</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="7">
+        <v>19145</v>
+      </c>
+      <c r="C13">
+        <v>19146</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>19094</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="8">
+        <v>20019</v>
+      </c>
+      <c r="C14">
+        <v>2024</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="9">
-        <v>19142</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="8">
+        <v>20024</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="9">
-        <v>19145</v>
+        <v>5</v>
+      </c>
+      <c r="B16" s="8">
+        <v>20028</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="9">
-        <v>19146</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="B17" s="8">
+        <v>20033</v>
+      </c>
+      <c r="C17">
+        <v>20036</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="10">
-        <v>20019</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="8">
+        <v>20036</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="10">
-        <v>20029</v>
+        <v>6</v>
+      </c>
+      <c r="B19" s="8">
+        <v>20039</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -733,17 +730,17 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="10">
-        <v>20033</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="8">
+        <v>20040</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>20045</v>
       </c>
       <c r="C21" t="s">
@@ -754,7 +751,7 @@
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>20068</v>
       </c>
     </row>
@@ -762,7 +759,7 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>20077</v>
       </c>
       <c r="C23" t="s">
@@ -773,8 +770,8 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="11">
-        <v>20080</v>
+      <c r="B24" s="9">
+        <v>20081</v>
       </c>
       <c r="C24">
         <v>20085</v>
@@ -784,7 +781,7 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>20085</v>
       </c>
     </row>
@@ -792,16 +789,16 @@
       <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="11">
-        <v>20090</v>
+      <c r="B26" s="9">
+        <v>20091</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="11">
-        <v>20097</v>
+      <c r="B27" s="9">
+        <v>20096</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -831,7 +828,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="4">
-        <v>20124</v>
+        <v>20125</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="4">
-        <v>20131</v>
+        <v>20130</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E21AEB-DE3E-49E4-B2F2-605E899B4926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA09D8D-E407-4A4D-A024-A501F1EEBF65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,18 +165,12 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -233,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -247,19 +241,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -554,7 +545,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>19139</v>
       </c>
       <c r="C2">
@@ -563,203 +554,209 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14079</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>18145</v>
+      </c>
+      <c r="C3">
+        <v>18146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1">
-        <v>14084</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>18147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>18145</v>
-      </c>
-      <c r="C5">
-        <v>18146</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>19040</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>18147</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>19045</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>19040</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>19088</v>
+      </c>
+      <c r="C7">
+        <v>19090</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
-        <v>19045</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>19090</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>19088</v>
-      </c>
-      <c r="C9">
-        <v>19090</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>19094</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>19090</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>19142</v>
+      </c>
+      <c r="C10">
+        <v>19144</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>19094</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
+        <v>19145</v>
+      </c>
+      <c r="C11">
+        <v>19146</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7">
-        <v>19142</v>
+        <v>20019</v>
       </c>
       <c r="C12">
-        <v>19144</v>
+        <v>20021</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7">
-        <v>19145</v>
+        <v>20021</v>
       </c>
       <c r="C13">
-        <v>19146</v>
+        <v>20024</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="8">
-        <v>20019</v>
-      </c>
-      <c r="C14">
-        <v>2024</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
+        <v>20024</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8">
-        <v>20024</v>
+        <v>5</v>
+      </c>
+      <c r="B15" s="7">
+        <v>20028</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8">
-        <v>20028</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="7">
+        <v>20033</v>
+      </c>
+      <c r="C16">
+        <v>20036</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="8">
-        <v>20033</v>
-      </c>
-      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7">
         <v>20036</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="8">
-        <v>20036</v>
+        <v>6</v>
+      </c>
+      <c r="B18" s="7">
+        <v>20039</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="8">
-        <v>20039</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="7">
+        <v>20040</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="8">
-        <v>20040</v>
+        <v>22</v>
+      </c>
+      <c r="B20" s="7">
+        <v>20045</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B21" s="8">
-        <v>20045</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
+        <v>20068</v>
+      </c>
+      <c r="C21">
+        <v>20072</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="9">
-        <v>20068</v>
+        <v>14</v>
+      </c>
+      <c r="B22" s="8">
+        <v>20072</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>20077</v>
       </c>
       <c r="C23" t="s">
@@ -770,7 +767,7 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>20081</v>
       </c>
       <c r="C24">
@@ -781,15 +778,15 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="9">
-        <v>20085</v>
+      <c r="B25" s="8">
+        <v>20086</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>20091</v>
       </c>
     </row>
@@ -797,7 +794,7 @@
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>20096</v>
       </c>
       <c r="C27" t="s">
@@ -808,7 +805,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>20117</v>
       </c>
     </row>
@@ -816,7 +813,7 @@
       <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>20119</v>
       </c>
       <c r="C29" t="s">
@@ -827,7 +824,7 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>20125</v>
       </c>
     </row>
@@ -835,7 +832,7 @@
       <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>20130</v>
       </c>
       <c r="C31" t="s">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA09D8D-E407-4A4D-A024-A501F1EEBF65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D40361-A373-45E3-BE8B-2977D84ECD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>19139</v>
+        <v>19140</v>
       </c>
       <c r="C2">
         <v>19141</v>
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>18145</v>
+        <v>18146</v>
       </c>
       <c r="C3">
         <v>18146</v>
@@ -565,229 +565,235 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
-        <v>18147</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>19041</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>19040</v>
+        <v>19044</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>19045</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>19089</v>
+      </c>
+      <c r="C6">
+        <v>19090</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>19088</v>
-      </c>
-      <c r="C7">
-        <v>19090</v>
+        <v>19091</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>19090</v>
+        <v>19093</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>19094</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>19143</v>
+      </c>
+      <c r="C9">
+        <v>19144</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6">
-        <v>19142</v>
+        <v>19145</v>
       </c>
       <c r="C10">
-        <v>19144</v>
+        <v>19146</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="6">
-        <v>19145</v>
+        <v>26</v>
+      </c>
+      <c r="B11" s="7">
+        <v>20020</v>
       </c>
       <c r="C11">
-        <v>19146</v>
+        <v>20021</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7">
-        <v>20019</v>
+        <v>20022</v>
       </c>
       <c r="C12">
-        <v>20021</v>
+        <v>20024</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7">
-        <v>20021</v>
-      </c>
-      <c r="C13">
         <v>20024</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B14" s="7">
-        <v>20024</v>
+        <v>20027</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>20028</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
+        <v>20034</v>
+      </c>
+      <c r="C15">
+        <v>20036</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B16" s="7">
-        <v>20033</v>
-      </c>
-      <c r="C16">
-        <v>20036</v>
+        <v>20037</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B17" s="7">
-        <v>20036</v>
+        <v>20038</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="7">
-        <v>20039</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
+        <v>20041</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B19" s="7">
-        <v>20040</v>
+        <v>20044</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="7">
-        <v>20045</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B20" s="8">
+        <v>20069</v>
+      </c>
+      <c r="C20">
+        <v>20072</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B21" s="8">
-        <v>20068</v>
-      </c>
-      <c r="C21">
-        <v>20072</v>
+        <v>20073</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8">
-        <v>20072</v>
+        <v>20076</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8">
-        <v>20077</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
+        <v>20082</v>
+      </c>
+      <c r="C23">
+        <v>20085</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B24" s="8">
-        <v>20081</v>
+        <v>20087</v>
       </c>
       <c r="C24">
-        <v>20085</v>
+        <v>20091</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B25" s="8">
-        <v>20086</v>
+        <v>20092</v>
+      </c>
+      <c r="C25">
+        <v>20093</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B26" s="8">
-        <v>20091</v>
+        <v>20093</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="8">
-        <v>20096</v>
+        <v>20095</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -833,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="3">
-        <v>20130</v>
+        <v>20129</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D40361-A373-45E3-BE8B-2977D84ECD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAE2652-F56B-48D3-9661-56CE0A654139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>19140</v>
+        <v>19141</v>
       </c>
       <c r="C2">
         <v>19141</v>
@@ -662,7 +662,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="7">
-        <v>20024</v>
+        <v>20025</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3">
-        <v>20117</v>
+        <v>20118</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="3">
-        <v>20119</v>
+        <v>20118</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -831,7 +831,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>20125</v>
+        <v>20126</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAE2652-F56B-48D3-9661-56CE0A654139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270860D5-6B4C-4B6D-B752-1E1650388A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,7 +165,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,12 +187,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -238,19 +232,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -545,22 +543,22 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
-        <v>19141</v>
+      <c r="B2" s="8">
+        <v>21001</v>
       </c>
       <c r="C2">
-        <v>19141</v>
+        <v>21005</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>18146</v>
+      <c r="B3" s="8">
+        <v>21005</v>
       </c>
       <c r="C3">
-        <v>18146</v>
+        <v>21011</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>19044</v>
+        <v>19043</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -587,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>19089</v>
+        <v>19090</v>
       </c>
       <c r="C6">
         <v>19090</v>
@@ -598,27 +596,27 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>19091</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>19092</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
-        <v>19093</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
+      <c r="B8" s="4">
+        <v>21011</v>
+      </c>
+      <c r="C8" s="9">
+        <v>21016</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>19143</v>
+      <c r="B9" s="5">
+        <v>19144</v>
       </c>
       <c r="C9">
         <v>19144</v>
@@ -628,7 +626,7 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>19145</v>
       </c>
       <c r="C10">
@@ -639,8 +637,8 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7">
-        <v>20020</v>
+      <c r="B11" s="6">
+        <v>20021</v>
       </c>
       <c r="C11">
         <v>20021</v>
@@ -650,8 +648,8 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7">
-        <v>20022</v>
+      <c r="B12" s="6">
+        <v>20023</v>
       </c>
       <c r="C12">
         <v>20024</v>
@@ -661,7 +659,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>20025</v>
       </c>
     </row>
@@ -669,8 +667,8 @@
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7">
-        <v>20027</v>
+      <c r="B14" s="6">
+        <v>20026</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -680,8 +678,8 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="7">
-        <v>20034</v>
+      <c r="B15" s="6">
+        <v>20035</v>
       </c>
       <c r="C15">
         <v>20036</v>
@@ -691,35 +689,38 @@
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="7">
-        <v>20037</v>
+      <c r="B16" s="4">
+        <v>21016</v>
+      </c>
+      <c r="C16" s="9">
+        <v>21021</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="7">
-        <v>20038</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
+      <c r="B17" s="4">
+        <v>21021</v>
+      </c>
+      <c r="C17" s="9">
+        <v>21026</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="7">
-        <v>20041</v>
+      <c r="B18" s="6">
+        <v>20042</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7">
-        <v>20044</v>
+      <c r="B19" s="6">
+        <v>20043</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -729,8 +730,8 @@
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="8">
-        <v>20069</v>
+      <c r="B20" s="7">
+        <v>20070</v>
       </c>
       <c r="C20">
         <v>20072</v>
@@ -740,16 +741,16 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="8">
-        <v>20073</v>
+      <c r="B21" s="7">
+        <v>20074</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8">
-        <v>20076</v>
+      <c r="B22" s="7">
+        <v>20075</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -759,8 +760,8 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8">
-        <v>20082</v>
+      <c r="B23" s="7">
+        <v>20083</v>
       </c>
       <c r="C23">
         <v>20085</v>
@@ -770,8 +771,8 @@
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="8">
-        <v>20087</v>
+      <c r="B24" s="7">
+        <v>20088</v>
       </c>
       <c r="C24">
         <v>20091</v>
@@ -781,8 +782,8 @@
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="8">
-        <v>20092</v>
+      <c r="B25" s="7">
+        <v>20093</v>
       </c>
       <c r="C25">
         <v>20093</v>
@@ -792,20 +793,18 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="8">
-        <v>20093</v>
+      <c r="B26" s="7">
+        <v>20094</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="8">
-        <v>20095</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
+      <c r="B27" s="10">
+        <v>21026</v>
+      </c>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -839,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="3">
-        <v>20129</v>
+        <v>20128</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270860D5-6B4C-4B6D-B752-1E1650388A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD4F98-5DBC-48CD-9471-099B90B6E6DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -659,9 +659,10 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6">
-        <v>20025</v>
-      </c>
+      <c r="B13" s="4">
+        <v>21041</v>
+      </c>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -804,25 +805,30 @@
       <c r="B27" s="10">
         <v>21026</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="9">
+        <v>21031</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3">
-        <v>20118</v>
+      <c r="B28" s="10">
+        <v>21036</v>
+      </c>
+      <c r="C28" s="9">
+        <v>21041</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="3">
-        <v>20118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
+      <c r="B29" s="10">
+        <v>21031</v>
+      </c>
+      <c r="C29" s="9">
+        <v>21036</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -830,7 +836,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>20126</v>
+        <v>20127</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD4F98-5DBC-48CD-9471-099B90B6E6DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2552FFFE-25D1-464A-8B46-911EF64F33F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,18 +165,12 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -221,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -229,19 +223,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -533,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -543,7 +534,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>21001</v>
       </c>
       <c r="C2">
@@ -554,7 +545,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>21005</v>
       </c>
       <c r="C3">
@@ -565,49 +556,50 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>19041</v>
+      <c r="B4" s="1">
+        <v>19039</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
-        <v>19043</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
+      <c r="B5" s="3">
+        <v>21051</v>
+      </c>
+      <c r="C5">
+        <v>21056</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
-        <v>19090</v>
-      </c>
-      <c r="C6">
-        <v>19090</v>
+      <c r="B6" s="3">
+        <v>21046</v>
+      </c>
+      <c r="C6" s="8">
+        <v>21051</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>19092</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="B7" s="3">
+        <v>21056</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>21011</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>21016</v>
       </c>
     </row>
@@ -615,7 +607,7 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>19144</v>
       </c>
       <c r="C9">
@@ -626,7 +618,7 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>19145</v>
       </c>
       <c r="C10">
@@ -637,7 +629,7 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>20021</v>
       </c>
       <c r="C11">
@@ -648,7 +640,7 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>20023</v>
       </c>
       <c r="C12">
@@ -659,16 +651,18 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>21041</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8">
+        <v>21046</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>20026</v>
       </c>
       <c r="C14" t="s">
@@ -679,7 +673,7 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>20035</v>
       </c>
       <c r="C15">
@@ -690,10 +684,10 @@
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>21016</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>21021</v>
       </c>
     </row>
@@ -701,10 +695,10 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>21021</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>21026</v>
       </c>
     </row>
@@ -712,7 +706,7 @@
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>20042</v>
       </c>
     </row>
@@ -720,7 +714,7 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>20043</v>
       </c>
       <c r="C19" t="s">
@@ -731,7 +725,7 @@
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>20070</v>
       </c>
       <c r="C20">
@@ -742,7 +736,7 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>20074</v>
       </c>
     </row>
@@ -750,7 +744,7 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>20075</v>
       </c>
       <c r="C22" t="s">
@@ -761,7 +755,7 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>20083</v>
       </c>
       <c r="C23">
@@ -772,7 +766,7 @@
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>20088</v>
       </c>
       <c r="C24">
@@ -783,7 +777,7 @@
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>20093</v>
       </c>
       <c r="C25">
@@ -794,7 +788,7 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>20094</v>
       </c>
     </row>
@@ -802,10 +796,10 @@
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>21026</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>21031</v>
       </c>
     </row>
@@ -813,10 +807,10 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>21036</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>21041</v>
       </c>
     </row>
@@ -824,10 +818,10 @@
       <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>21031</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>21036</v>
       </c>
     </row>
@@ -835,7 +829,7 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>20127</v>
       </c>
     </row>
@@ -843,7 +837,7 @@
       <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>20128</v>
       </c>
       <c r="C31" t="s">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2552FFFE-25D1-464A-8B46-911EF64F33F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F94F22B-A2FD-4FA2-8F94-ED60B9F4762E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,7 +165,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,18 +181,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -226,13 +214,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -524,325 +506,312 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7">
-        <v>21001</v>
-      </c>
-      <c r="C2">
-        <v>21005</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>19039</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <v>21005</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20071</v>
       </c>
       <c r="C3">
-        <v>21011</v>
+        <v>20072</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>19039</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20084</v>
+      </c>
+      <c r="C4">
+        <v>20085</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3">
-        <v>21051</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20089</v>
       </c>
       <c r="C5">
-        <v>21056</v>
+        <v>20091</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>21046</v>
-      </c>
-      <c r="C6" s="8">
-        <v>21051</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20095</v>
+      </c>
+      <c r="C6">
+        <v>20096</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>21056</v>
-      </c>
-      <c r="C7" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20096</v>
+      </c>
+      <c r="C7" s="6">
+        <v>20097</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>21011</v>
-      </c>
-      <c r="C8" s="8">
-        <v>21016</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20097</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20098</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4">
-        <v>19144</v>
-      </c>
-      <c r="C9">
-        <v>19144</v>
-      </c>
+        <v>20098</v>
+      </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>19145</v>
-      </c>
-      <c r="C10">
-        <v>19146</v>
+        <v>20099</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="5">
-        <v>20021</v>
-      </c>
-      <c r="C11">
-        <v>20021</v>
+        <v>27</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B12" s="5">
-        <v>20023</v>
+        <v>21002</v>
       </c>
       <c r="C12">
-        <v>20024</v>
+        <v>21005</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
-        <v>21041</v>
-      </c>
-      <c r="C13" s="8">
-        <v>21046</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>21006</v>
+      </c>
+      <c r="C13">
+        <v>21011</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5">
-        <v>20026</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>21012</v>
+      </c>
+      <c r="C14" s="6">
+        <v>21016</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5">
-        <v>20035</v>
-      </c>
-      <c r="C15">
-        <v>20036</v>
+        <v>24</v>
+      </c>
+      <c r="B15" s="3">
+        <v>21017</v>
+      </c>
+      <c r="C15" s="6">
+        <v>21021</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3">
-        <v>21016</v>
-      </c>
-      <c r="C16" s="8">
-        <v>21021</v>
+        <v>21022</v>
+      </c>
+      <c r="C16" s="6">
+        <v>21026</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="3">
-        <v>21021</v>
-      </c>
-      <c r="C17" s="8">
-        <v>21026</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
+        <v>21027</v>
+      </c>
+      <c r="C17" s="6">
+        <v>21031</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="5">
-        <v>20042</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>21031</v>
+      </c>
+      <c r="C18" s="6">
+        <v>21036</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5">
-        <v>20043</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B19" s="7">
+        <v>21036</v>
+      </c>
+      <c r="C19" s="6">
+        <v>21041</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="6">
-        <v>20070</v>
-      </c>
-      <c r="C20">
-        <v>20072</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>21041</v>
+      </c>
+      <c r="C20" s="6">
+        <v>21046</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="6">
-        <v>20074</v>
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>21046</v>
+      </c>
+      <c r="C21" s="6">
+        <v>21051</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6">
-        <v>20075</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21051</v>
+      </c>
+      <c r="C22">
+        <v>21056</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6">
-        <v>20083</v>
-      </c>
-      <c r="C23">
-        <v>20085</v>
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
+        <v>21056</v>
+      </c>
+      <c r="C23" s="6">
+        <v>21061</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="6">
-        <v>20088</v>
-      </c>
-      <c r="C24">
-        <v>20091</v>
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>21061</v>
+      </c>
+      <c r="C24" s="6">
+        <v>21066</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="6">
-        <v>20093</v>
-      </c>
-      <c r="C25">
-        <v>20093</v>
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
+        <v>21066</v>
+      </c>
+      <c r="C25" s="6">
+        <v>21071</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="6">
-        <v>20094</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B26" s="5">
+        <v>21071</v>
+      </c>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="9">
-        <v>21026</v>
-      </c>
-      <c r="C27" s="8">
-        <v>21031</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="9">
-        <v>21036</v>
-      </c>
-      <c r="C28" s="8">
-        <v>21041</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="9">
-        <v>21031</v>
-      </c>
-      <c r="C29" s="8">
-        <v>21036</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2">
-        <v>20127</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="2">
-        <v>20128</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F94F22B-A2FD-4FA2-8F94-ED60B9F4762E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F8FAC-A96B-406F-85B3-EBC2AB462A37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,7 +165,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +175,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,18 +197,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -506,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -524,7 +515,7 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>20071</v>
       </c>
       <c r="C3">
@@ -535,7 +526,7 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>20084</v>
       </c>
       <c r="C4">
@@ -546,7 +537,7 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>20089</v>
       </c>
       <c r="C5">
@@ -557,7 +548,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>20095</v>
       </c>
       <c r="C6">
@@ -568,22 +559,22 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>20096</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>20097</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>20097</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>20098</v>
       </c>
     </row>
@@ -591,227 +582,236 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>20098</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>20099</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2">
-        <v>20127</v>
+        <v>0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>21002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5">
-        <v>21002</v>
-      </c>
-      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>21005</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>21006</v>
-      </c>
-      <c r="C13">
-        <v>21011</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3">
-        <v>21012</v>
-      </c>
-      <c r="C14" s="6">
-        <v>21016</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>21011</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3">
-        <v>21017</v>
-      </c>
-      <c r="C15" s="6">
-        <v>21021</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>21012</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3">
-        <v>21022</v>
-      </c>
-      <c r="C16" s="6">
-        <v>21026</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>21016</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7">
-        <v>21027</v>
-      </c>
-      <c r="C17" s="6">
-        <v>21031</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>21017</v>
+      </c>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7">
-        <v>21031</v>
-      </c>
-      <c r="C18" s="6">
-        <v>21036</v>
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>21021</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="7">
-        <v>21036</v>
-      </c>
-      <c r="C19" s="6">
-        <v>21041</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>21022</v>
+      </c>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>21041</v>
-      </c>
-      <c r="C20" s="6">
-        <v>21046</v>
+        <v>22</v>
+      </c>
+      <c r="B20" s="6">
+        <v>21026</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3">
-        <v>21046</v>
-      </c>
-      <c r="C21" s="6">
-        <v>21051</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B21" s="6">
+        <v>21027</v>
+      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3">
-        <v>21051</v>
-      </c>
-      <c r="C22">
-        <v>21056</v>
+        <v>27</v>
+      </c>
+      <c r="B22" s="6">
+        <v>21031</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3">
-        <v>21056</v>
-      </c>
-      <c r="C23" s="6">
-        <v>21061</v>
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>21032</v>
+      </c>
+      <c r="C23" s="5">
+        <v>21036</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3">
-        <v>21061</v>
-      </c>
-      <c r="C24" s="6">
-        <v>21066</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="6">
+        <v>21037</v>
+      </c>
+      <c r="C24" s="5">
+        <v>21041</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="3">
-        <v>21066</v>
-      </c>
-      <c r="C25" s="6">
-        <v>21071</v>
+        <v>19</v>
+      </c>
+      <c r="B25" s="2">
+        <v>21042</v>
+      </c>
+      <c r="C25" s="5">
+        <v>21046</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="5">
-        <v>21071</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>21046</v>
+      </c>
+      <c r="C26" s="5">
+        <v>21051</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B27" s="2">
+        <v>21051</v>
+      </c>
+      <c r="C27">
+        <v>21056</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="B28" s="2">
+        <v>21056</v>
+      </c>
+      <c r="C28" s="5">
+        <v>21061</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <v>21061</v>
+      </c>
+      <c r="C29" s="5">
+        <v>21066</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>21066</v>
+      </c>
+      <c r="C30" s="5">
+        <v>21071</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B31" s="4">
+        <v>21071</v>
+      </c>
+      <c r="C31" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F8FAC-A96B-406F-85B3-EBC2AB462A37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4502B6F6-22CA-4D2A-A2B9-B653CB4B90EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,18 +165,12 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -197,15 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -498,7 +489,7 @@
   <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -508,14 +499,17 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>19039</v>
+        <v>21036</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>20071</v>
       </c>
       <c r="C3">
@@ -526,7 +520,7 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>20084</v>
       </c>
       <c r="C4">
@@ -537,7 +531,7 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>20089</v>
       </c>
       <c r="C5">
@@ -548,7 +542,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>20095</v>
       </c>
       <c r="C6">
@@ -559,22 +553,22 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>20096</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>20097</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>20097</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>20098</v>
       </c>
     </row>
@@ -582,19 +576,19 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>20098</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>20099</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -602,7 +596,7 @@
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>21002</v>
       </c>
     </row>
@@ -610,10 +604,10 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>21005</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -621,7 +615,7 @@
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>21006</v>
       </c>
     </row>
@@ -629,10 +623,10 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>21011</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -640,19 +634,19 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>21012</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>21016</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -660,19 +654,19 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>21017</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>21021</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -680,19 +674,19 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>21022</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>21026</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -700,19 +694,19 @@
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>21027</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>21031</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -720,10 +714,10 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>21032</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>21036</v>
       </c>
     </row>
@@ -731,10 +725,10 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>21037</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>21041</v>
       </c>
     </row>
@@ -742,10 +736,10 @@
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>21042</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>21046</v>
       </c>
     </row>
@@ -753,10 +747,10 @@
       <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>21046</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>21051</v>
       </c>
     </row>
@@ -764,7 +758,7 @@
       <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>21051</v>
       </c>
       <c r="C27">
@@ -775,10 +769,10 @@
       <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>21056</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>21061</v>
       </c>
     </row>
@@ -786,10 +780,10 @@
       <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>21061</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>21066</v>
       </c>
     </row>
@@ -797,10 +791,10 @@
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>21066</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>21071</v>
       </c>
     </row>
@@ -808,10 +802,10 @@
       <c r="A31" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>21071</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4502B6F6-22CA-4D2A-A2B9-B653CB4B90EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FDFCD1-A4A4-439D-83F6-3BDE67CA85EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,7 +489,7 @@
   <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -509,22 +509,22 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2">
-        <v>20071</v>
-      </c>
-      <c r="C3">
-        <v>20072</v>
+      <c r="B3" s="4">
+        <v>21066</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2">
-        <v>20084</v>
-      </c>
-      <c r="C4">
-        <v>20085</v>
+      <c r="B4" s="4">
+        <v>21070</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>20089</v>
+        <v>20090</v>
       </c>
       <c r="C5">
         <v>20091</v>
@@ -542,22 +542,22 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>20095</v>
-      </c>
-      <c r="C6">
-        <v>20096</v>
+      <c r="B6" s="4">
+        <v>21041</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2">
-        <v>20096</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20097</v>
+      <c r="B7" s="4">
+        <v>21046</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -565,28 +565,30 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2">
-        <v>20097</v>
-      </c>
-      <c r="C8" s="4">
-        <v>20098</v>
+      <c r="B8" s="4">
+        <v>21051</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2">
-        <v>20098</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="B9">
+        <v>21056</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>20099</v>
+      <c r="B10" s="4">
+        <v>21061</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>30</v>
@@ -597,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="3">
-        <v>21002</v>
+        <v>21003</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>21005</v>
+        <v>21004</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>30</v>
@@ -616,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5">
-        <v>21006</v>
+        <v>21007</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,7 +626,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>21011</v>
+        <v>21010</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>30</v>
@@ -635,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>21012</v>
+        <v>21013</v>
       </c>
       <c r="C15" s="4"/>
     </row>
@@ -644,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>21016</v>
+        <v>21015</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>30</v>
@@ -655,7 +657,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>21017</v>
+        <v>21018</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -664,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>21021</v>
+        <v>21020</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>30</v>
@@ -675,7 +677,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1">
-        <v>21022</v>
+        <v>21023</v>
       </c>
       <c r="C19" s="4"/>
     </row>
@@ -684,7 +686,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="5">
-        <v>21026</v>
+        <v>21025</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>30</v>
@@ -695,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="5">
-        <v>21027</v>
+        <v>21028</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -704,7 +706,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="5">
-        <v>21031</v>
+        <v>21030</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>30</v>
@@ -715,21 +717,16 @@
         <v>17</v>
       </c>
       <c r="B23" s="5">
-        <v>21032</v>
-      </c>
-      <c r="C23" s="4">
-        <v>21036</v>
-      </c>
+        <v>21033</v>
+      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="5">
-        <v>21037</v>
-      </c>
-      <c r="C24" s="4">
-        <v>21041</v>
+        <v>21038</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,10 +734,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="1">
-        <v>21042</v>
-      </c>
-      <c r="C25" s="4">
-        <v>21046</v>
+        <v>21043</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -748,10 +742,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="1">
-        <v>21046</v>
-      </c>
-      <c r="C26" s="4">
-        <v>21051</v>
+        <v>21047</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,10 +750,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="1">
-        <v>21051</v>
-      </c>
-      <c r="C27">
-        <v>21056</v>
+        <v>21052</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,10 +758,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="1">
-        <v>21056</v>
-      </c>
-      <c r="C28" s="4">
-        <v>21061</v>
+        <v>21057</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,10 +766,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1">
-        <v>21061</v>
-      </c>
-      <c r="C29" s="4">
-        <v>21066</v>
+        <v>21062</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,10 +774,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="1">
-        <v>21066</v>
-      </c>
-      <c r="C30" s="4">
-        <v>21071</v>
+        <v>21067</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="3">
-        <v>21071</v>
+        <v>21072</v>
       </c>
       <c r="C31" s="4"/>
     </row>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FDFCD1-A4A4-439D-83F6-3BDE67CA85EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A64D7-0E67-4D7D-841F-73D6EDAFF041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -486,64 +486,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D31"/>
+  <dimension ref="A3:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>21036</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4">
-        <v>21066</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20090</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4">
-        <v>21070</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="3">
+        <v>21003</v>
+      </c>
+      <c r="C4">
+        <v>20091</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2">
-        <v>20090</v>
-      </c>
-      <c r="C5">
-        <v>20091</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>21004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <v>21041</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>21007</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>30</v>
@@ -551,22 +537,19 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4">
-        <v>21046</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>21010</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4">
-        <v>21051</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21013</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>30</v>
@@ -574,21 +557,19 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>21056</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>21015</v>
+      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <v>21061</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>21018</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>30</v>
@@ -596,18 +577,19 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3">
-        <v>21003</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>21020</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>21004</v>
+        <v>21023</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>30</v>
@@ -615,18 +597,19 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5">
-        <v>21007</v>
-      </c>
+        <v>21025</v>
+      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1">
-        <v>21010</v>
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
+        <v>21028</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>30</v>
@@ -634,19 +617,19 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>21013</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>21030</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>21015</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="5">
+        <v>21033</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>30</v>
@@ -654,119 +637,125 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>21018</v>
+        <v>21035</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <v>21020</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B18" s="5">
+        <v>21038</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1">
-        <v>21023</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B19" s="4">
+        <v>21041</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5">
-        <v>21025</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>21043</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="5">
-        <v>21028</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B21" s="4">
+        <v>21046</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="5">
-        <v>21030</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21048</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="5">
-        <v>21033</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B23" s="4">
+        <v>21051</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5">
-        <v>21038</v>
+        <v>13</v>
+      </c>
+      <c r="B24" s="1">
+        <v>21053</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1">
-        <v>21043</v>
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>21056</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1">
-        <v>21047</v>
+        <v>21058</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1">
-        <v>21052</v>
+        <v>10</v>
+      </c>
+      <c r="B27" s="4">
+        <v>21061</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1">
-        <v>21057</v>
+        <v>21062</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1">
-        <v>21062</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="4">
+        <v>21066</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,16 +768,27 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4">
+        <v>21070</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="3">
         <v>21072</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C32" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B32">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A64D7-0E67-4D7D-841F-73D6EDAFF041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F714930-17B0-4CE5-9E03-92178D552D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,14 +489,14 @@
   <dimension ref="A3:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>20090</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>21003</v>
@@ -518,15 +518,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>21004</v>
       </c>
+      <c r="D5" s="5">
+        <v>12017</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5">
         <v>21007</v>
@@ -534,19 +537,24 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D6" s="5">
+        <v>12020</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>21010</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="5">
+        <v>12110</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>21013</v>
@@ -554,19 +562,25 @@
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D8" s="5">
+        <v>12129</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>21015</v>
       </c>
       <c r="C9" s="4"/>
+      <c r="D9" s="5">
+        <v>12130</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>21018</v>
@@ -577,16 +591,19 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>21020</v>
       </c>
       <c r="C11" s="4"/>
+      <c r="D11" s="5">
+        <v>12131</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>21023</v>
@@ -594,25 +611,34 @@
       <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D12" s="5">
+        <v>12132</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5">
         <v>21025</v>
       </c>
       <c r="C13" s="4"/>
+      <c r="D13" s="5">
+        <v>12133</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5">
         <v>21028</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="D14" s="5">
+        <v>12134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,10 +649,13 @@
         <v>21030</v>
       </c>
       <c r="C15" s="4"/>
+      <c r="D15" s="5">
+        <v>12135</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5">
         <v>21033</v>
@@ -635,26 +664,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>21035</v>
       </c>
       <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <v>12136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>21038</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="5">
+        <v>12137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4">
         <v>21041</v>
@@ -662,18 +697,24 @@
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>21043</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="5">
+        <v>12139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4">
         <v>21046</v>
@@ -681,18 +722,21 @@
       <c r="C21" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="5">
+        <v>12140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>21048</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4">
         <v>21051</v>
@@ -701,17 +745,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>21053</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>21056</v>
@@ -720,17 +764,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>21058</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B27" s="4">
         <v>21061</v>
@@ -739,17 +783,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>21062</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" s="4">
         <v>21066</v>
@@ -758,17 +802,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>21067</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4">
         <v>21070</v>
@@ -777,9 +821,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3">
         <v>21072</v>
@@ -788,8 +832,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B32">
-    <sortCondition ref="B1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A32">
+    <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F714930-17B0-4CE5-9E03-92178D552D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3262E88B-CF53-4B96-8C17-6EAE2BB177D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$32</definedName>
@@ -488,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -515,6 +516,9 @@
       <c r="C4">
         <v>20091</v>
       </c>
+      <c r="D4">
+        <v>14040</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -733,6 +737,9 @@
       <c r="B22" s="1">
         <v>21048</v>
       </c>
+      <c r="D22">
+        <v>14070</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -744,6 +751,9 @@
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D23">
+        <v>15024</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -752,6 +762,9 @@
       <c r="B24" s="1">
         <v>21053</v>
       </c>
+      <c r="D24">
+        <v>15028</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -763,6 +776,9 @@
       <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D25">
+        <v>15045</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -771,6 +787,9 @@
       <c r="B26" s="1">
         <v>21058</v>
       </c>
+      <c r="D26">
+        <v>15101</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -782,6 +801,9 @@
       <c r="C27" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D27">
+        <v>15102</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -790,6 +812,9 @@
       <c r="B28" s="1">
         <v>21062</v>
       </c>
+      <c r="D28">
+        <v>15103</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -801,6 +826,9 @@
       <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D29">
+        <v>15104</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -809,6 +837,9 @@
       <c r="B30" s="1">
         <v>21067</v>
       </c>
+      <c r="D30">
+        <v>15105</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -820,6 +851,9 @@
       <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D31">
+        <v>15106</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -829,6 +863,9 @@
         <v>21072</v>
       </c>
       <c r="C32" s="4"/>
+      <c r="D32">
+        <v>15107</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
@@ -839,4 +876,356 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
+  <dimension ref="B15:B81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>15108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>15109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>15129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17041</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>17110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>17155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>18001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>18002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>18003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>18004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>18005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>18006</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>18007</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>18008</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>18009</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>18010</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>18011</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>18012</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>18013</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>18014</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>18015</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>18016</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>18017</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>18018</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>18019</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>18020</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>18021</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>18022</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>18023</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>18025</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>18026</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>18027</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>18028</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>18029</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>18030</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>18031</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>18032</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>18033</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>18034</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>18035</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>18036</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>18037</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>18038</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>18039</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>18040</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>18041</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>18042</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>18043</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>18044</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>18045</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>18079</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>19015</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>18046</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>19095</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>20026</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>20027</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>20028</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>20029</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>20080</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>20085</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>20120</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>20121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3262E88B-CF53-4B96-8C17-6EAE2BB177D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA65FB5-9A49-4B0E-82BC-EA91ED16BB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -505,6 +505,9 @@
       <c r="C3" t="s">
         <v>30</v>
       </c>
+      <c r="D3">
+        <v>15108</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -541,8 +544,8 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5">
-        <v>12020</v>
+      <c r="D6">
+        <v>15109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,8 +555,8 @@
       <c r="B7" s="1">
         <v>21010</v>
       </c>
-      <c r="D7" s="5">
-        <v>12110</v>
+      <c r="D7">
+        <v>15129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,8 +569,8 @@
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5">
-        <v>12129</v>
+      <c r="D8">
+        <v>17041</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -578,8 +581,8 @@
         <v>21015</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="5">
-        <v>12130</v>
+      <c r="D9">
+        <v>17110</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -601,8 +604,8 @@
         <v>21020</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="5">
-        <v>12131</v>
+      <c r="D11">
+        <v>17140</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,8 +618,8 @@
       <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5">
-        <v>12132</v>
+      <c r="D12">
+        <v>18001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,8 +630,8 @@
         <v>21025</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="5">
-        <v>12133</v>
+      <c r="D13">
+        <v>18002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,8 +644,8 @@
       <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5">
-        <v>12134</v>
+      <c r="D14">
+        <v>18003</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,64 +883,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B15:B81"/>
+  <dimension ref="B25:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>15108</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>15109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>15129</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>17041</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>17110</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>17140</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>17155</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>18001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>18002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>18003</v>
-      </c>
-    </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>18004</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA65FB5-9A49-4B0E-82BC-EA91ED16BB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C2F100-A4BE-4339-B0A8-18BF85F4710B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -679,8 +679,8 @@
         <v>21035</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="5">
-        <v>12136</v>
+      <c r="D17">
+        <v>18004</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -704,8 +704,8 @@
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="5">
-        <v>12138</v>
+      <c r="D19">
+        <v>18005</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,8 +715,8 @@
       <c r="B20" s="1">
         <v>21043</v>
       </c>
-      <c r="D20" s="5">
-        <v>12139</v>
+      <c r="D20">
+        <v>18006</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,8 +729,8 @@
       <c r="C21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="5">
-        <v>12140</v>
+      <c r="D21">
+        <v>18007</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,34 +883,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B25:B81"/>
+  <dimension ref="B29:B81"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>18004</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>18005</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>18006</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>18007</v>
-      </c>
-    </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>18008</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizhuo\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C2F100-A4BE-4339-B0A8-18BF85F4710B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16F50DB-5826-4576-89F3-46A5C41ACC52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -489,13 +481,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -509,7 +501,7 @@
         <v>15108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -523,7 +515,7 @@
         <v>14040</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -534,7 +526,7 @@
         <v>12017</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -548,7 +540,7 @@
         <v>15109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -559,7 +551,7 @@
         <v>15129</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -573,7 +565,7 @@
         <v>17041</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -585,7 +577,7 @@
         <v>17110</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -596,7 +588,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -608,7 +600,7 @@
         <v>17140</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -622,7 +614,7 @@
         <v>18001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -634,7 +626,7 @@
         <v>18002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -648,7 +640,7 @@
         <v>18003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -660,7 +652,7 @@
         <v>12135</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -671,7 +663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -683,7 +675,7 @@
         <v>18004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -694,7 +686,7 @@
         <v>12137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -708,7 +700,7 @@
         <v>18005</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -719,7 +711,7 @@
         <v>18006</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -733,7 +725,7 @@
         <v>18007</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -744,7 +736,7 @@
         <v>14070</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -758,7 +750,7 @@
         <v>15024</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -769,7 +761,7 @@
         <v>15028</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -783,7 +775,7 @@
         <v>15045</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -794,7 +786,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -808,7 +800,7 @@
         <v>15102</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -819,7 +811,7 @@
         <v>15103</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -833,7 +825,7 @@
         <v>15104</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -844,7 +836,7 @@
         <v>15105</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -858,7 +850,7 @@
         <v>15106</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -872,7 +864,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A32">
+  <sortState ref="A3:A32">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -883,275 +875,280 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B29:B81"/>
+  <dimension ref="B28:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>12127</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>18008</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>18009</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>18010</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>18011</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>18012</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>18013</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>18014</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>18015</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>18016</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>18017</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>18018</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>18019</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>18020</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>18021</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>18022</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>18023</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>18024</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>18025</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>18026</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>18027</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>18028</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>18029</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>18030</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>18031</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>18032</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>18033</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>18034</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>18035</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>18036</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>18037</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>18038</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>18039</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>18040</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>18041</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>18042</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>18043</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>18044</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>18045</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>18079</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>18100</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>19015</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>18046</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>19095</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>20026</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>20027</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>20028</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>20029</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>20032</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>20080</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>20085</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>20100</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>20120</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>20121</v>
       </c>
@@ -1159,6 +1156,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ps.xlsx
+++ b/ps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizhuo\Documents\GitHub\dcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16F50DB-5826-4576-89F3-46A5C41ACC52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08E958A-55BB-4B51-96E5-C4AC6C52E24E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,12 +482,12 @@
   <dimension ref="A3:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>15108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -515,18 +515,18 @@
         <v>14040</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>21004</v>
       </c>
-      <c r="D5" s="5">
-        <v>12017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>12127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -540,7 +540,7 @@
         <v>15109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -551,7 +551,7 @@
         <v>15129</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -565,7 +565,7 @@
         <v>17041</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -577,7 +577,7 @@
         <v>17110</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -587,8 +587,11 @@
       <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>18008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -600,7 +603,7 @@
         <v>17140</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -614,7 +617,7 @@
         <v>18001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -626,7 +629,7 @@
         <v>18002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -640,7 +643,7 @@
         <v>18003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -648,11 +651,11 @@
         <v>21030</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="5">
-        <v>12135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>18009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -662,8 +665,11 @@
       <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>18010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -675,7 +681,7 @@
         <v>18004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -686,7 +692,7 @@
         <v>12137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -700,7 +706,7 @@
         <v>18005</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -711,7 +717,7 @@
         <v>18006</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -725,7 +731,7 @@
         <v>18007</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -736,7 +742,7 @@
         <v>14070</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -750,7 +756,7 @@
         <v>15024</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -761,7 +767,7 @@
         <v>15028</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -775,7 +781,7 @@
         <v>15045</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -786,7 +792,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -800,7 +806,7 @@
         <v>15102</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -811,7 +817,7 @@
         <v>15103</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -825,7 +831,7 @@
         <v>15104</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -836,7 +842,7 @@
         <v>15105</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -850,7 +856,7 @@
         <v>15106</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -864,7 +870,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
-  <sortState ref="A3:A32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A32">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -875,280 +881,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B28:B81"/>
+  <dimension ref="B32:B81"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>12127</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>18008</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>18009</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>18010</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>18011</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>18012</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>18013</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>18014</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>18015</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>18016</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>18017</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>18018</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>18019</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>18020</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>18021</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>18022</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>18023</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>18024</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>18025</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>18026</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>18027</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>18028</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>18029</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>18030</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>18031</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>18032</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>18033</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>18034</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>18035</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>18036</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>18037</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>18038</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>18039</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>18040</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>18041</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>18042</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>18043</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>18044</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>18045</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>18079</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>18100</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>19015</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>18046</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>19095</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>20026</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>20027</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>20028</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>20029</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>20032</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>20080</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>20085</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>20100</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>20120</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>20121</v>
       </c>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08E958A-55BB-4B51-96E5-C4AC6C52E24E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF1FABE-3753-4712-8F91-0B5AD8CB4B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A3:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -688,8 +688,8 @@
       <c r="B18" s="5">
         <v>21038</v>
       </c>
-      <c r="D18" s="5">
-        <v>12137</v>
+      <c r="D18">
+        <v>18011</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,19 +881,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B32:B81"/>
+  <dimension ref="B33:B81"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>18011</v>
-      </c>
-    </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>18012</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF1FABE-3753-4712-8F91-0B5AD8CB4B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092D36CD-0D61-447D-9EE9-314409E1DD81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A3:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>20091</v>
       </c>
       <c r="D4">
-        <v>14040</v>
+        <v>18012</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>21048</v>
       </c>
       <c r="D22">
-        <v>14070</v>
+        <v>18013</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>15024</v>
+        <v>18014</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>21053</v>
       </c>
       <c r="D24">
-        <v>15028</v>
+        <v>18015</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>15045</v>
+        <v>18016</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
         <v>21058</v>
       </c>
       <c r="D26">
-        <v>15101</v>
+        <v>18017</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>15102</v>
+        <v>18018</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>21062</v>
       </c>
       <c r="D28">
-        <v>15103</v>
+        <v>18019</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>30</v>
       </c>
       <c r="D29">
-        <v>15104</v>
+        <v>18020</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>21067</v>
       </c>
       <c r="D30">
-        <v>15105</v>
+        <v>18021</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>15106</v>
+        <v>18022</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,69 +881,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B33:B81"/>
+  <dimension ref="B44:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>18012</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>18013</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>18014</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>18015</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>18016</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>18017</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>18018</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>18019</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>18020</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>18021</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>18022</v>
-      </c>
-    </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>18023</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092D36CD-0D61-447D-9EE9-314409E1DD81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11069A32-27BA-48BE-A690-C2ACEBBD2B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -498,7 +498,7 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>15108</v>
+        <v>18023</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
         <v>21004</v>
       </c>
       <c r="D5">
-        <v>12127</v>
+        <v>18024</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>15109</v>
+        <v>18025</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>21010</v>
       </c>
       <c r="D7">
-        <v>15129</v>
+        <v>18026</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>17041</v>
+        <v>18027</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9">
-        <v>17110</v>
+        <v>18028</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>18001</v>
+        <v>18029</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13">
-        <v>18002</v>
+        <v>18030</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>18003</v>
+        <v>18031</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17">
-        <v>18004</v>
+        <v>18032</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>18005</v>
+        <v>18033</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>21043</v>
       </c>
       <c r="D20">
-        <v>18006</v>
+        <v>18034</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>18007</v>
+        <v>18035</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,79 +881,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B44:B81"/>
+  <dimension ref="B57:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>18023</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>18024</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>18025</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>18026</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>18027</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>18028</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>18029</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>18030</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>18031</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>18032</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>18033</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>18034</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>18035</v>
-      </c>
-    </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>18036</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11069A32-27BA-48BE-A690-C2ACEBBD2B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24DED99-1239-42A9-962E-293638223010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>18008</v>
+        <v>18036</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11">
-        <v>17140</v>
+        <v>18037</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15">
-        <v>18009</v>
+        <v>18038</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>18010</v>
+        <v>18040</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>21038</v>
       </c>
       <c r="D18">
-        <v>18011</v>
+        <v>18039</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,39 +881,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B57:B81"/>
+  <dimension ref="B62:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>18036</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>18037</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>18038</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>18039</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>18040</v>
-      </c>
-    </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>18041</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24DED99-1239-42A9-962E-293638223010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE34D9F-70C4-4CE6-9997-64BAF4A1977C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -881,14 +881,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B62:B81"/>
+  <dimension ref="B61:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>13064</v>
+      </c>
+    </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>18041</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE34D9F-70C4-4CE6-9997-64BAF4A1977C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF678C1-0221-4430-B177-537709C2465D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -498,7 +502,7 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>18023</v>
+        <v>13064</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -512,7 +516,7 @@
         <v>20091</v>
       </c>
       <c r="D4">
-        <v>18012</v>
+        <v>18041</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,7 +527,7 @@
         <v>21004</v>
       </c>
       <c r="D5">
-        <v>18024</v>
+        <v>18042</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -537,7 +541,7 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>18025</v>
+        <v>18043</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,7 +566,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>18027</v>
+        <v>18044</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,7 +578,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9">
-        <v>18028</v>
+        <v>18045</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,7 +592,7 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>18036</v>
+        <v>18079</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,7 +604,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11">
-        <v>18037</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,7 +618,7 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>18029</v>
+        <v>19015</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +630,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13">
-        <v>18030</v>
+        <v>18046</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +644,7 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>18031</v>
+        <v>19095</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,7 +656,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15">
-        <v>18038</v>
+        <v>20026</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +670,7 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>18040</v>
+        <v>20027</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,9 +681,6 @@
         <v>21035</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17">
-        <v>18032</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -703,7 +704,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>18033</v>
+        <v>20028</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +715,7 @@
         <v>21043</v>
       </c>
       <c r="D20">
-        <v>18034</v>
+        <v>20029</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,7 +729,7 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>18035</v>
+        <v>20032</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +740,7 @@
         <v>21048</v>
       </c>
       <c r="D22">
-        <v>18013</v>
+        <v>20085</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +754,7 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>18014</v>
+        <v>20080</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +765,7 @@
         <v>21053</v>
       </c>
       <c r="D24">
-        <v>18015</v>
+        <v>20100</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>18016</v>
+        <v>20120</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +790,7 @@
         <v>21058</v>
       </c>
       <c r="D26">
-        <v>18017</v>
+        <v>20121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -802,9 +803,6 @@
       <c r="C27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D27">
-        <v>18018</v>
-      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -813,9 +811,6 @@
       <c r="B28" s="1">
         <v>21062</v>
       </c>
-      <c r="D28">
-        <v>18019</v>
-      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -827,9 +822,6 @@
       <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D29">
-        <v>18020</v>
-      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -852,9 +844,6 @@
       <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D31">
-        <v>18022</v>
-      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -864,9 +853,6 @@
         <v>21072</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32">
-        <v>15107</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
@@ -881,117 +867,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B61:B81"/>
+  <dimension ref="B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>13064</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>18041</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>18042</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>18043</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>18044</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>18045</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>18079</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>18100</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>19015</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>18046</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>19095</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>20026</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>20027</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>20028</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>20029</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>20032</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>20080</v>
-      </c>
-    </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>20085</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>20100</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>20120</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>20121</v>
+      <c r="B78" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF678C1-0221-4430-B177-537709C2465D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D5DD4C-1D1D-42F1-9AD9-51E9D980374A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -550,9 +550,6 @@
       </c>
       <c r="B7" s="1">
         <v>21010</v>
-      </c>
-      <c r="D7">
-        <v>18026</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D5DD4C-1D1D-42F1-9AD9-51E9D980374A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222554C1-2C39-4A22-AE20-11F441541903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +124,6 @@
   </si>
   <si>
     <t>up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -502,7 +498,7 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>13064</v>
+        <v>10027</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,7 +512,7 @@
         <v>20091</v>
       </c>
       <c r="D4">
-        <v>18041</v>
+        <v>10028</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,7 +523,7 @@
         <v>21004</v>
       </c>
       <c r="D5">
-        <v>18042</v>
+        <v>10029</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -541,7 +537,7 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>18043</v>
+        <v>11036</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,6 +547,9 @@
       <c r="B7" s="1">
         <v>21010</v>
       </c>
+      <c r="D7">
+        <v>11037</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -563,7 +562,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>18044</v>
+        <v>11038</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,7 +574,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9">
-        <v>18045</v>
+        <v>11047</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>18079</v>
+        <v>11051</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -601,7 +600,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11">
-        <v>18100</v>
+        <v>11052</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,7 +614,7 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>19015</v>
+        <v>11053</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,7 +626,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13">
-        <v>18046</v>
+        <v>11054</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,7 +640,7 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>19095</v>
+        <v>11055</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,7 +652,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15">
-        <v>20026</v>
+        <v>11056</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,7 +666,7 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>20027</v>
+        <v>11057</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,6 +677,9 @@
         <v>21035</v>
       </c>
       <c r="C17" s="4"/>
+      <c r="D17">
+        <v>11058</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -687,7 +689,7 @@
         <v>21038</v>
       </c>
       <c r="D18">
-        <v>18039</v>
+        <v>11059</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,7 +703,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>20028</v>
+        <v>11060</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +714,7 @@
         <v>21043</v>
       </c>
       <c r="D20">
-        <v>20029</v>
+        <v>11061</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,7 +728,7 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>20032</v>
+        <v>11062</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,7 +739,7 @@
         <v>21048</v>
       </c>
       <c r="D22">
-        <v>20085</v>
+        <v>11063</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,7 +753,7 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>20080</v>
+        <v>11064</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,7 +764,7 @@
         <v>21053</v>
       </c>
       <c r="D24">
-        <v>20100</v>
+        <v>11065</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,7 +778,7 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>20120</v>
+        <v>11066</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,7 +789,7 @@
         <v>21058</v>
       </c>
       <c r="D26">
-        <v>20121</v>
+        <v>11067</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,6 +802,9 @@
       <c r="C27" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D27">
+        <v>11068</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -828,7 +833,7 @@
         <v>21067</v>
       </c>
       <c r="D30">
-        <v>18021</v>
+        <v>11069</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,17 +869,437 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B78"/>
+  <dimension ref="B27:B111"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>11070</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>11071</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>11072</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>11073</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>11074</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>11075</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>11076</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>11077</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>11078</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>11079</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>11080</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>11081</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>11082</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>11083</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>11084</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>11085</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>11087</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>11089</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>11090</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>11091</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>11092</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>11093</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>11094</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>11095</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>11096</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>11097</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>11098</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>11099</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>13076</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>13077</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>13078</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>14147</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>15012</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>15102</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>17131</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>18032</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>18143</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>17144</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>17145</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>19017</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>19101</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>19102</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>19103</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>19104</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>19105</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>19106</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>19107</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>19108</v>
+      </c>
+    </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>31</v>
+      <c r="B78">
+        <v>19109</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>19110</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>19111</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>19112</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>19113</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>19114</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>19115</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>19116</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>19117</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>19118</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>19119</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>19120</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>19121</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>19122</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>19123</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>19124</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>19125</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>19126</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>19127</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>19128</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>19129</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>19130</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>19131</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>19132</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>19133</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>19134</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>19135</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>19136</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>19137</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>19138</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>19139</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>20033</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>20080</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>20099</v>
       </c>
     </row>
   </sheetData>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222554C1-2C39-4A22-AE20-11F441541903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97165C0-A8C1-478E-B0DD-932958D22498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -498,7 +498,7 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>10027</v>
+        <v>11070</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>20091</v>
       </c>
       <c r="D4">
-        <v>10028</v>
+        <v>11071</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
         <v>21004</v>
       </c>
       <c r="D5">
-        <v>10029</v>
+        <v>11072</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>11036</v>
+        <v>11073</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>21010</v>
       </c>
       <c r="D7">
-        <v>11037</v>
+        <v>11074</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>11038</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9">
-        <v>11047</v>
+        <v>11076</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>11051</v>
+        <v>11077</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11">
-        <v>11052</v>
+        <v>11078</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>11053</v>
+        <v>11079</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13">
-        <v>11054</v>
+        <v>11080</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>11055</v>
+        <v>11081</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>11057</v>
+        <v>11082</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17">
-        <v>11058</v>
+        <v>11083</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>11060</v>
+        <v>11084</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>21043</v>
       </c>
       <c r="D20">
-        <v>11061</v>
+        <v>11085</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>11062</v>
+        <v>11086</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>21048</v>
       </c>
       <c r="D22">
-        <v>11063</v>
+        <v>11087</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>11064</v>
+        <v>11088</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>21053</v>
       </c>
       <c r="D24">
-        <v>11065</v>
+        <v>11089</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>11066</v>
+        <v>11090</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
         <v>21058</v>
       </c>
       <c r="D26">
-        <v>11067</v>
+        <v>11091</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>11068</v>
+        <v>11092</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>21067</v>
       </c>
       <c r="D30">
-        <v>11069</v>
+        <v>11093</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -869,436 +869,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B27:B111"/>
+  <dimension ref="B50:B113"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>11070</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>11071</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>11072</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>11073</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>11074</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>11075</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>11076</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>11077</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>11078</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>11079</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>11080</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>11081</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>11082</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>11083</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>11084</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>11085</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>11086</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>11087</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>11088</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>11089</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>11090</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>11091</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>11092</v>
-      </c>
-    </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>11093</v>
+        <v>10027</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>11094</v>
+        <v>11046</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>11095</v>
+        <v>11059</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>11096</v>
+        <v>11094</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>11097</v>
+        <v>11095</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>11098</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>11099</v>
+        <v>11097</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>13076</v>
+        <v>11098</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>13077</v>
+        <v>11099</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>13078</v>
+        <v>13076</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>14147</v>
+        <v>13077</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>15012</v>
+        <v>13078</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>15102</v>
+        <v>14147</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>17131</v>
+        <v>15012</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>18032</v>
+        <v>15102</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>18143</v>
+        <v>17131</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>17144</v>
+        <v>18032</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>17145</v>
+        <v>18143</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>19017</v>
+        <v>17144</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>19047</v>
+        <v>17145</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>19101</v>
+        <v>19017</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>19102</v>
+        <v>19047</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>19103</v>
+        <v>19101</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>19104</v>
+        <v>19102</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>19105</v>
+        <v>19103</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>19106</v>
+        <v>19104</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>19107</v>
+        <v>19105</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>19108</v>
+        <v>19106</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>19109</v>
+        <v>19107</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>19110</v>
+        <v>19108</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>19111</v>
+        <v>19109</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>19112</v>
+        <v>19110</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>19113</v>
+        <v>19111</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>19114</v>
+        <v>19112</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>19115</v>
+        <v>19113</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>19116</v>
+        <v>19114</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>19117</v>
+        <v>19115</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>19118</v>
+        <v>19116</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>19119</v>
+        <v>19117</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89">
-        <v>19120</v>
+        <v>19118</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>19121</v>
+        <v>19119</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91">
-        <v>19122</v>
+        <v>19120</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92">
-        <v>19123</v>
+        <v>19121</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93">
-        <v>19124</v>
+        <v>19122</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94">
-        <v>19125</v>
+        <v>19123</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95">
-        <v>19126</v>
+        <v>19124</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
-        <v>19127</v>
+        <v>19125</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97">
-        <v>19128</v>
+        <v>19126</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98">
-        <v>19129</v>
+        <v>19127</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99">
-        <v>19130</v>
+        <v>19128</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100">
-        <v>19131</v>
+        <v>19129</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101">
-        <v>19132</v>
+        <v>19130</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102">
-        <v>19133</v>
+        <v>19131</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103">
-        <v>19134</v>
+        <v>19132</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104">
-        <v>19135</v>
+        <v>19133</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105">
-        <v>19136</v>
+        <v>19134</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106">
-        <v>19137</v>
+        <v>19135</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107">
-        <v>19138</v>
+        <v>19136</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108">
-        <v>19139</v>
+        <v>19137</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109">
-        <v>20033</v>
+        <v>19138</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110">
-        <v>20080</v>
+        <v>19139</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111">
+        <v>20033</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>20080</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113">
         <v>20099</v>
       </c>
     </row>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97165C0-A8C1-478E-B0DD-932958D22498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D800B5-7548-4D08-94FB-6969764675C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -813,6 +813,9 @@
       <c r="B28" s="1">
         <v>21062</v>
       </c>
+      <c r="D28">
+        <v>10027</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -824,6 +827,9 @@
       <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D29">
+        <v>11046</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -846,6 +852,9 @@
       <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D31">
+        <v>11059</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -855,6 +864,9 @@
         <v>21072</v>
       </c>
       <c r="C32" s="4"/>
+      <c r="D32">
+        <v>11094</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
@@ -869,34 +881,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B50:B113"/>
+  <dimension ref="B54:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>10027</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>11046</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>11059</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>11094</v>
-      </c>
-    </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>11095</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D800B5-7548-4D08-94FB-6969764675C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210300A3-91A1-4096-8B3D-C5170D24DF6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -498,7 +498,7 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>11070</v>
+        <v>11095</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>20091</v>
       </c>
       <c r="D4">
-        <v>11071</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
         <v>21004</v>
       </c>
       <c r="D5">
-        <v>11072</v>
+        <v>11097</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>11073</v>
+        <v>11098</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>21010</v>
       </c>
       <c r="D7">
-        <v>11074</v>
+        <v>11099</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>11075</v>
+        <v>13076</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9">
-        <v>11076</v>
+        <v>13077</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>11077</v>
+        <v>13078</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11">
-        <v>11078</v>
+        <v>14147</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>11079</v>
+        <v>15012</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13">
-        <v>11080</v>
+        <v>15102</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>11081</v>
+        <v>17131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15">
-        <v>11056</v>
+        <v>18032</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>11082</v>
+        <v>18143</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17">
-        <v>11083</v>
+        <v>17144</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>21038</v>
       </c>
       <c r="D18">
-        <v>11059</v>
+        <v>17145</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>11084</v>
+        <v>19017</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>21043</v>
       </c>
       <c r="D20">
-        <v>11085</v>
+        <v>19047</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>11086</v>
+        <v>19101</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>21048</v>
       </c>
       <c r="D22">
-        <v>11087</v>
+        <v>19102</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>11088</v>
+        <v>19103</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>21053</v>
       </c>
       <c r="D24">
-        <v>11089</v>
+        <v>19104</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>11090</v>
+        <v>19105</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
         <v>21058</v>
       </c>
       <c r="D26">
-        <v>11091</v>
+        <v>19106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>11092</v>
+        <v>19107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>21062</v>
       </c>
       <c r="D28">
-        <v>10027</v>
+        <v>19108</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>30</v>
       </c>
       <c r="D29">
-        <v>11046</v>
+        <v>19109</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>21067</v>
       </c>
       <c r="D30">
-        <v>11093</v>
+        <v>19110</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>11059</v>
+        <v>19111</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32">
-        <v>11094</v>
+        <v>19112</v>
       </c>
     </row>
   </sheetData>
@@ -881,164 +881,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B54:B113"/>
+  <dimension ref="B84:B113"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>11095</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>11096</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>11097</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>11098</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>11099</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>13076</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>13077</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>13078</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>14147</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>15012</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>15102</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>17131</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>18032</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>18143</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>17144</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>17145</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>19017</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>19101</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>19102</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>19103</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>19104</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>19105</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>19106</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>19107</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>19108</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>19109</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>19110</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>19111</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <v>19112</v>
-      </c>
-    </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>19113</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizhuo\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210300A3-91A1-4096-8B3D-C5170D24DF6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5DAF9E-F12B-460E-9092-1A31825CEA82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,13 +481,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>11095</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -515,7 +515,7 @@
         <v>11096</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -526,7 +526,7 @@
         <v>11097</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -540,7 +540,7 @@
         <v>11098</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -551,7 +551,7 @@
         <v>11099</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -565,7 +565,7 @@
         <v>13076</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -577,7 +577,7 @@
         <v>13077</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -591,7 +591,7 @@
         <v>13078</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -603,7 +603,7 @@
         <v>14147</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -617,7 +617,7 @@
         <v>15012</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -629,7 +629,7 @@
         <v>15102</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -643,7 +643,7 @@
         <v>17131</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -655,7 +655,7 @@
         <v>18032</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -669,7 +669,7 @@
         <v>18143</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -681,7 +681,7 @@
         <v>17144</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -692,7 +692,7 @@
         <v>17145</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -706,7 +706,7 @@
         <v>19017</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -717,7 +717,7 @@
         <v>19047</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -731,7 +731,7 @@
         <v>19101</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -742,7 +742,7 @@
         <v>19102</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -756,7 +756,7 @@
         <v>19103</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -767,7 +767,7 @@
         <v>19104</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -781,7 +781,7 @@
         <v>19105</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -792,7 +792,7 @@
         <v>19106</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -806,7 +806,7 @@
         <v>19107</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -817,7 +817,7 @@
         <v>19108</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -831,7 +831,7 @@
         <v>19109</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -842,7 +842,7 @@
         <v>19110</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -856,7 +856,7 @@
         <v>19111</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -870,7 +870,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A32">
+  <sortState ref="A3:A32">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -881,160 +881,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B84:B113"/>
+  <dimension ref="B83:B113"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>19113</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>19114</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>19115</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>19116</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>19117</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>19118</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>19119</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>19120</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>19121</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>19122</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>19123</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>19124</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>19125</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>19126</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>19127</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>19128</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>19129</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>19130</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>19131</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>19132</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>19133</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>19134</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>19135</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>19136</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>19137</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>19138</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>19139</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>20033</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>20080</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>20099</v>
       </c>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210300A3-91A1-4096-8B3D-C5170D24DF6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645DB64F-3B92-407D-9389-12539F9F447D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -738,9 +738,6 @@
       <c r="B22" s="1">
         <v>21048</v>
       </c>
-      <c r="D22">
-        <v>19102</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -752,9 +749,6 @@
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23">
-        <v>19103</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -763,9 +757,6 @@
       <c r="B24" s="1">
         <v>21053</v>
       </c>
-      <c r="D24">
-        <v>19104</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -777,9 +768,6 @@
       <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D25">
-        <v>19105</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -788,22 +776,16 @@
       <c r="B26" s="1">
         <v>21058</v>
       </c>
-      <c r="D26">
-        <v>19106</v>
-      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="4">
-        <v>21061</v>
+      <c r="B27" s="5">
+        <v>21060</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D27">
-        <v>19107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,7 +796,7 @@
         <v>21062</v>
       </c>
       <c r="D28">
-        <v>19108</v>
+        <v>20099</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,7 +810,7 @@
         <v>30</v>
       </c>
       <c r="D29">
-        <v>19109</v>
+        <v>20080</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,7 +821,7 @@
         <v>21067</v>
       </c>
       <c r="D30">
-        <v>19110</v>
+        <v>19139</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,7 +835,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>19111</v>
+        <v>19132</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,7 +847,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32">
-        <v>19112</v>
+        <v>19124</v>
       </c>
     </row>
   </sheetData>
@@ -881,165 +863,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B84:B113"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>19113</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <v>19114</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>19115</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>19116</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>19117</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>19118</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>19119</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>19120</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>19121</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>19122</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>19123</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <v>19124</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <v>19125</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <v>19126</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <v>19127</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <v>19128</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>19129</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <v>19130</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <v>19131</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103">
-        <v>19132</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104">
-        <v>19133</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105">
-        <v>19134</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106">
-        <v>19135</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107">
-        <v>19136</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108">
-        <v>19137</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109">
-        <v>19138</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110">
-        <v>19139</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111">
-        <v>20033</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112">
-        <v>20080</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113">
-        <v>20099</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizhuo\Documents\GitHub\dcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5DAF9E-F12B-460E-9092-1A31825CEA82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8AB45-6A37-4CB5-A349-F8D7C7AE517F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,18 +158,12 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,12 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -482,231 +473,203 @@
   <dimension ref="A3:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>20090</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>11095</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>21004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>21003</v>
-      </c>
-      <c r="C4">
-        <v>20091</v>
-      </c>
-      <c r="D4">
-        <v>11096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>21005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>21004</v>
-      </c>
-      <c r="D5">
-        <v>11097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="4">
+        <v>21008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
-        <v>21007</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>11098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="4">
+        <v>21009</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>21010</v>
-      </c>
-      <c r="D7">
-        <v>11099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>21013</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>13076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21012</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>21015</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="D9">
         <v>13077</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>21018</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D10">
         <v>13078</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>21020</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="D11">
         <v>14147</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>21023</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D12">
         <v>15012</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>21025</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
       <c r="D13">
         <v>15102</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>21028</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D14">
         <v>17131</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>21030</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3"/>
       <c r="D15">
         <v>18032</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>21033</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D16">
         <v>18143</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>21035</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
       <c r="D17">
         <v>17144</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>21038</v>
       </c>
       <c r="D18">
         <v>17145</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>21041</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D19">
         <v>19017</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -717,161 +680,125 @@
         <v>19047</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>21046</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21">
-        <v>19101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>21048</v>
       </c>
-      <c r="D22">
-        <v>19102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>21051</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23">
-        <v>19103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>21053</v>
       </c>
-      <c r="D24">
-        <v>19104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25">
         <v>21056</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25">
-        <v>19105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>21058</v>
       </c>
-      <c r="D26">
-        <v>19106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>21061</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27">
-        <v>19107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>21062</v>
       </c>
-      <c r="D28">
-        <v>19108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>21066</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29">
-        <v>19109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>21067</v>
       </c>
-      <c r="D30">
-        <v>19110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>21070</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>19111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>21072</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32">
-        <v>19112</v>
-      </c>
+      <c r="C32" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
-  <sortState ref="A3:A32">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B33">
+    <sortCondition ref="B1:B33"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -881,170 +808,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="B83:B113"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B113" sqref="B83:B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83">
-        <v>10146</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84">
-        <v>19113</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85">
-        <v>19114</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86">
-        <v>19115</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87">
-        <v>19116</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88">
-        <v>19117</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89">
-        <v>19118</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90">
-        <v>19119</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91">
-        <v>19120</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92">
-        <v>19121</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93">
-        <v>19122</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94">
-        <v>19123</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95">
-        <v>19124</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96">
-        <v>19125</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97">
-        <v>19126</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98">
-        <v>19127</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99">
-        <v>19128</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100">
-        <v>19129</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101">
-        <v>19130</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102">
-        <v>19131</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103">
-        <v>19132</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104">
-        <v>19133</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105">
-        <v>19134</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106">
-        <v>19135</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107">
-        <v>19136</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108">
-        <v>19137</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109">
-        <v>19138</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110">
-        <v>19139</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111">
-        <v>20033</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112">
-        <v>20080</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113">
-        <v>20099</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8AB45-6A37-4CB5-A349-F8D7C7AE517F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC65F40-2BEC-4DA1-962D-BD006AA022FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,7 +473,7 @@
   <dimension ref="A3:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -545,14 +545,9 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>21018</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>13078</v>
-      </c>
+        <v>21013</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC65F40-2BEC-4DA1-962D-BD006AA022FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A45F98F-A404-47F1-8994-1E81D9A9E5DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,12 +158,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -188,6 +194,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -482,7 +491,7 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>21004</v>
       </c>
     </row>
@@ -491,14 +500,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>21005</v>
+        <v>21019</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>21008</v>
       </c>
     </row>
@@ -506,7 +515,7 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>21009</v>
       </c>
       <c r="C6" s="3"/>
@@ -516,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>21011</v>
+        <v>21022</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,38 +563,27 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>21020</v>
+        <v>21014</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11">
-        <v>14147</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>21023</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>15012</v>
-      </c>
+        <v>21015</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>21025</v>
+        <v>21023</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13">
-        <v>15102</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -805,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
+    <sheetView topLeftCell="A104" workbookViewId="0">
       <selection activeCell="B113" sqref="B83:B113"/>
     </sheetView>
   </sheetViews>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A45F98F-A404-47F1-8994-1E81D9A9E5DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6269D79-1BFE-4FB1-8D1C-D44F3BDAE79B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2316" yWindow="408" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -491,15 +491,15 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
-        <v>21004</v>
+      <c r="B3" s="1">
+        <v>21029</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>21019</v>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>21022</v>
+        <v>21030</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>21012</v>
+        <v>21031</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -542,19 +542,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>21015</v>
+        <v>21032</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9">
-        <v>13077</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>21013</v>
+        <v>21033</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -562,7 +559,7 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>21014</v>
       </c>
       <c r="C11" s="3"/>
@@ -572,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>21015</v>
+        <v>21034</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -580,8 +577,8 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
-        <v>21023</v>
+      <c r="B13" s="1">
+        <v>21035</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -589,27 +586,19 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
-        <v>21028</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>17131</v>
-      </c>
+      <c r="B14" s="1">
+        <v>21037</v>
+      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
-        <v>21030</v>
+      <c r="B15" s="5">
+        <v>21024</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15">
-        <v>18032</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -630,22 +619,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>21035</v>
+        <v>21024</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17">
-        <v>17144</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="4">
-        <v>21038</v>
-      </c>
-      <c r="D18">
-        <v>17145</v>
+        <v>21025</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B113" sqref="B83:B113"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6269D79-1BFE-4FB1-8D1C-D44F3BDAE79B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16149C02-5272-495A-90C6-5E707EAE0235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2316" yWindow="408" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -199,6 +199,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -481,21 +482,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>21029</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -503,7 +504,7 @@
         <v>21019</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -511,7 +512,7 @@
         <v>21008</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -520,42 +521,42 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>21030</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>21031</v>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>21032</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>21033</v>
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -564,34 +565,34 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>21034</v>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>21035</v>
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>21037</v>
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -600,19 +601,14 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
-        <v>21033</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>18143</v>
-      </c>
+      <c r="B16" s="5">
+        <v>21044</v>
+      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -635,15 +631,10 @@
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3">
-        <v>21041</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>19017</v>
-      </c>
+      <c r="B19" s="6">
+        <v>21045</v>
+      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16149C02-5272-495A-90C6-5E707EAE0235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A95F8F7-CB4E-4DF3-A25F-A615768D1053}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D32"/>
+  <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -619,7 +619,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -627,7 +627,7 @@
         <v>21025</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -636,18 +636,15 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
-        <v>21043</v>
-      </c>
-      <c r="D20">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>21048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -658,7 +655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -666,7 +663,7 @@
         <v>21048</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -677,7 +674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -685,7 +682,7 @@
         <v>21053</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -696,7 +693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -704,7 +701,7 @@
         <v>21058</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -715,7 +712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -723,7 +720,7 @@
         <v>21062</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -734,7 +731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -742,7 +739,7 @@
         <v>21067</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -753,7 +750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizhuo\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A95F8F7-CB4E-4DF3-A25F-A615768D1053}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C44E36-908A-41F3-A913-8832D87AEC8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -200,6 +200,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,13 +485,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -496,7 +499,7 @@
         <v>21029</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -504,7 +507,7 @@
         <v>21019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -512,7 +515,7 @@
         <v>21008</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -521,7 +524,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -529,7 +532,7 @@
         <v>21030</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -538,7 +541,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -547,7 +550,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -556,7 +559,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -565,7 +568,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -574,7 +577,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -583,7 +586,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -592,7 +595,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -601,7 +604,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -610,7 +613,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -619,7 +622,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -627,7 +630,7 @@
         <v>21025</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -636,7 +639,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -644,7 +647,7 @@
         <v>21048</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -655,7 +658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -663,7 +666,7 @@
         <v>21048</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -674,7 +677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -682,7 +685,7 @@
         <v>21053</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -693,7 +696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -701,7 +704,7 @@
         <v>21058</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -712,7 +715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -720,7 +723,7 @@
         <v>21062</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -731,7 +734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -739,7 +742,7 @@
         <v>21067</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -750,7 +753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -761,7 +764,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B33">
+  <sortState ref="B3:B33">
     <sortCondition ref="B1:B33"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -772,14 +775,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>18144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>20099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>21008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>21009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>21014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>21019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>21024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>21029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>21030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>21031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>21037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>21038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>21039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>21040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>21041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>21045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>21046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>21049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>21050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>21055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>21059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>21060</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>21061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>21064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>21068</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizhuo\Documents\GitHub\dcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C44E36-908A-41F3-A913-8832D87AEC8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF18AC8-5C40-469F-A85E-92970AC7A31B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,17 +121,13 @@
   </si>
   <si>
     <t>user_30</t>
-  </si>
-  <si>
-    <t>up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,11 +145,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -184,12 +175,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -485,180 +473,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>21029</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>21019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>21008</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>21009</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>21030</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>21031</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>21032</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>21033</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>21014</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>21034</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>21035</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>21037</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>21024</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>21044</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>21024</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>21025</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>21045</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>21048</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>21046</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -666,18 +652,16 @@
         <v>21048</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>21051</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -685,18 +669,16 @@
         <v>21053</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25">
         <v>21056</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -704,18 +686,16 @@
         <v>21058</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>21061</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -723,48 +703,44 @@
         <v>21062</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3">
-        <v>21066</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>10146</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
-        <v>21067</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>18144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3">
-        <v>21070</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="6">
+        <v>21008</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="2">
-        <v>21072</v>
-      </c>
-      <c r="C32" s="3"/>
+      <c r="B32" s="6">
+        <v>21009</v>
+      </c>
+      <c r="C32" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
-  <sortState ref="B3:B33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B33">
     <sortCondition ref="B1:B33"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -775,146 +751,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A4:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>10146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>18144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>20080</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>20099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>21008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>21009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>21014</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>21019</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>21024</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>21029</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>21030</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>21031</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>21037</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>21038</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>21039</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>21040</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>21041</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>21045</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>21046</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>21049</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>21050</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>21055</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>21059</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>21060</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>21061</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>21064</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>21068</v>
       </c>
     </row>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF18AC8-5C40-469F-A85E-92970AC7A31B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB288DE-894A-4D93-9462-561ED8764F12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B32"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -639,8 +639,8 @@
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
-        <v>21046</v>
+      <c r="B21" s="6">
+        <v>21019</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -648,16 +648,16 @@
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
-        <v>21048</v>
+      <c r="B22" s="6">
+        <v>21024</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
-        <v>21051</v>
+      <c r="B23" s="6">
+        <v>21029</v>
       </c>
       <c r="C23" s="2"/>
     </row>
@@ -665,16 +665,16 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
-        <v>21053</v>
+      <c r="B24" s="6">
+        <v>21030</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
-        <v>21056</v>
+      <c r="B25" s="6">
+        <v>21031</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -690,8 +690,8 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="2">
-        <v>21061</v>
+      <c r="B27" s="6">
+        <v>21037</v>
       </c>
       <c r="C27" s="2"/>
     </row>
@@ -699,8 +699,8 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
-        <v>21062</v>
+      <c r="B28" s="6">
+        <v>21014</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
   <dimension ref="A4:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -762,41 +762,6 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>21014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>21019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>21024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>21029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>21030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>21031</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>21037</v>
-      </c>
-    </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>21038</v>
@@ -848,9 +813,7 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>21060</v>
-      </c>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB288DE-894A-4D93-9462-561ED8764F12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD2563-22D4-47AF-891E-26597A393521}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,18 +149,12 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,19 +169,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -473,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,7 +470,7 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>21029</v>
       </c>
     </row>
@@ -491,7 +478,7 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>21019</v>
       </c>
     </row>
@@ -499,16 +486,16 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>21008</v>
+      <c r="B5" s="3">
+        <v>21038</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>21009</v>
+      <c r="B6" s="3">
+        <v>21039</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -516,7 +503,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>21030</v>
       </c>
     </row>
@@ -524,7 +511,7 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>21031</v>
       </c>
       <c r="C8" s="2"/>
@@ -533,7 +520,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>21032</v>
       </c>
       <c r="C9" s="2"/>
@@ -542,7 +529,7 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>21033</v>
       </c>
       <c r="C10" s="2"/>
@@ -551,7 +538,7 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>21014</v>
       </c>
       <c r="C11" s="2"/>
@@ -560,7 +547,7 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>21034</v>
       </c>
       <c r="C12" s="2"/>
@@ -569,7 +556,7 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>21035</v>
       </c>
       <c r="C13" s="2"/>
@@ -578,7 +565,7 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>21037</v>
       </c>
       <c r="C14" s="2"/>
@@ -587,7 +574,7 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>21024</v>
       </c>
       <c r="C15" s="2"/>
@@ -596,7 +583,7 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>21044</v>
       </c>
       <c r="C16" s="2"/>
@@ -614,7 +601,7 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>21025</v>
       </c>
     </row>
@@ -622,7 +609,7 @@
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>21045</v>
       </c>
       <c r="C19" s="2"/>
@@ -631,7 +618,7 @@
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <v>21048</v>
       </c>
     </row>
@@ -639,7 +626,7 @@
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>21019</v>
       </c>
       <c r="C21" s="2"/>
@@ -648,7 +635,7 @@
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>21024</v>
       </c>
     </row>
@@ -656,7 +643,7 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>21029</v>
       </c>
       <c r="C23" s="2"/>
@@ -665,7 +652,7 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>21030</v>
       </c>
     </row>
@@ -673,7 +660,7 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <v>21031</v>
       </c>
       <c r="C25" s="2"/>
@@ -682,15 +669,15 @@
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
-        <v>21058</v>
+      <c r="B26" s="3">
+        <v>21040</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="3">
         <v>21037</v>
       </c>
       <c r="C27" s="2"/>
@@ -699,7 +686,7 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="3">
         <v>21014</v>
       </c>
     </row>
@@ -707,8 +694,8 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29">
-        <v>10146</v>
+      <c r="B29" s="3">
+        <v>21041</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -724,7 +711,7 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="3">
         <v>21008</v>
       </c>
       <c r="C31" s="2"/>
@@ -733,7 +720,7 @@
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="3">
         <v>21009</v>
       </c>
       <c r="C32" s="2"/>
@@ -754,79 +741,59 @@
   <dimension ref="A4:A27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>21038</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>21039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>21040</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>21041</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>21045</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>21046</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>21049</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>21050</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>21055</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>21059</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>21061</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>21064</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>21068</v>
       </c>
     </row>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD2563-22D4-47AF-891E-26597A393521}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8BCF38-1DA7-4605-93BF-AF55D5AC8754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -478,8 +478,8 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>21019</v>
+      <c r="B4" s="3">
+        <v>21045</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,8 +538,8 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
-        <v>21014</v>
+      <c r="B11" s="3">
+        <v>21049</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -592,8 +592,8 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
-        <v>21024</v>
+      <c r="B17" s="3">
+        <v>21050</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -601,8 +601,8 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
-        <v>21025</v>
+      <c r="B18" s="3">
+        <v>21055</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>21019</v>
+        <v>21046</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -741,7 +741,7 @@
   <dimension ref="A4:A27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -749,31 +749,6 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>21045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>21046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>21049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>21050</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>21055</v>
-      </c>
-    </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21059</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8BCF38-1DA7-4605-93BF-AF55D5AC8754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4FFB34-73A0-43F4-84A3-AD685F4C51C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,6 +749,11 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>18144</v>
+      </c>
+    </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21059</v>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4FFB34-73A0-43F4-84A3-AD685F4C51C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF9E7E-0B23-4BB1-9282-34E68F03F85E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -457,11 +457,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
+  <dimension ref="A4:A24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -511,8 +534,8 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>21031</v>
+      <c r="B8" s="3">
+        <v>18144</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -520,8 +543,8 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
-        <v>21032</v>
+      <c r="B9" s="3">
+        <v>21059</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -530,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>21033</v>
+        <v>21074</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -547,8 +570,8 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
-        <v>21034</v>
+      <c r="B12" s="3">
+        <v>21061</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -556,8 +579,8 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
-        <v>21035</v>
+      <c r="B13" s="3">
+        <v>21064</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -574,8 +597,8 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
-        <v>21024</v>
+      <c r="B15" s="3">
+        <v>21068</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -734,52 +757,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="A4:A27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>18144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>21059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>21061</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21064</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>21068</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF9E7E-0B23-4BB1-9282-34E68F03F85E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C48B9D-916A-478C-A30C-CEFA7B7277BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>21029</v>
+        <v>21075</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>21045</v>
+        <v>21076</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>21037</v>
+        <v>21077</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -607,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>21044</v>
+        <v>21078</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -633,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>21045</v>
+        <v>21079</v>
       </c>
       <c r="C19" s="2"/>
     </row>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C48B9D-916A-478C-A30C-CEFA7B7277BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6CC185-2FBB-4227-97DB-61896962897E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>21048</v>
+        <v>21080</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6CC185-2FBB-4227-97DB-61896962897E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E163F-642C-4760-AF01-86AFB8DC7421}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>21008</v>
+        <v>21081</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -744,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3">
-        <v>21009</v>
+        <v>21082</v>
       </c>
       <c r="C32" s="2"/>
     </row>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E163F-642C-4760-AF01-86AFB8DC7421}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516E38B8-5DCE-4E4B-BEEA-70FFD87CC1C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -710,7 +710,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>21014</v>
+        <v>21083</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516E38B8-5DCE-4E4B-BEEA-70FFD87CC1C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D5DBBF-118A-40AD-8206-237242D80C47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>21024</v>
+        <v>21084</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>21029</v>
+        <v>21085</v>
       </c>
       <c r="C23" s="2"/>
     </row>
@@ -675,17 +675,13 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
-        <v>21030</v>
-      </c>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3">
-        <v>21031</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -700,9 +696,7 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3">
-        <v>21037</v>
-      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D5DBBF-118A-40AD-8206-237242D80C47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7338E7B5-5A86-4074-86B3-AB0230A00A06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -457,34 +457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
-  <dimension ref="A4:A24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -534,8 +511,8 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <v>18144</v>
+      <c r="B8">
+        <v>21044</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -675,13 +652,17 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3">
+        <v>20131</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25">
+        <v>21054</v>
+      </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,7 +677,9 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27">
+        <v>21056</v>
+      </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,4 +734,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
+  <dimension ref="A4:A24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7338E7B5-5A86-4074-86B3-AB0230A00A06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80426CEF-7792-4620-B678-714843094C4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -486,17 +486,13 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>21038</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>21039</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,9 +648,7 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
-        <v>20131</v>
-      </c>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -694,9 +688,7 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3">
-        <v>21041</v>
-      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80426CEF-7792-4620-B678-714843094C4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C1EC9-0645-47D1-A2FB-839D7BE38039}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -534,9 +534,7 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
-        <v>21049</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,9 +586,7 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
-        <v>21050</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -663,9 +659,7 @@
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
-        <v>21040</v>
-      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C1EC9-0645-47D1-A2FB-839D7BE38039}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C54B67-72B2-4102-895C-DC441EF40306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -470,9 +470,7 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>21075</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -499,9 +497,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>21030</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -516,18 +512,14 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>21059</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
-        <v>21074</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,45 +533,35 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>21061</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
-        <v>21064</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
-        <v>21077</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
-        <v>21068</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
-        <v>21078</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,43 +575,33 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
-        <v>21055</v>
-      </c>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <v>21079</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
-        <v>21080</v>
-      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
-        <v>21046</v>
-      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
-        <v>21084</v>
-      </c>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -666,7 +638,7 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>21056</v>
+        <v>21086</v>
       </c>
       <c r="C27" s="2"/>
     </row>
@@ -674,9 +646,7 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="3">
-        <v>21083</v>
-      </c>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -689,26 +659,19 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30">
-        <v>18144</v>
-      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3">
-        <v>21081</v>
-      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
-        <v>21082</v>
-      </c>
+      <c r="B32" s="3"/>
       <c r="C32" s="2"/>
     </row>
   </sheetData>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C54B67-72B2-4102-895C-DC441EF40306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAC1540-1E71-4704-94C8-083E14514820}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>21076</v>
+        <v>21054</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,9 +503,6 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>21044</v>
-      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,9 +618,6 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
-      </c>
-      <c r="B25">
-        <v>21054</v>
       </c>
       <c r="C25" s="2"/>
     </row>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAC1540-1E71-4704-94C8-083E14514820}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AF4C9B-82CE-4344-9C24-59328EAC45B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -604,9 +604,7 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
-        <v>21085</v>
-      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AF4C9B-82CE-4344-9C24-59328EAC45B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC45ADE6-3363-45A7-8324-E926EAB8E7F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -628,9 +628,6 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
-      </c>
-      <c r="B27">
-        <v>21086</v>
       </c>
       <c r="C27" s="2"/>
     </row>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC45ADE6-3363-45A7-8324-E926EAB8E7F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEED1412-0646-4DED-A7F4-DB143A25BA82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -476,9 +476,7 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>21054</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEED1412-0646-4DED-A7F4-DB143A25BA82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A68B993-173B-4B57-A378-64014E73C5CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,13 +169,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C32"/>
+  <dimension ref="A3:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -470,196 +473,265 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>5001</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>5021</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>5041</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="1">
+        <v>5061</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>5081</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="3">
+        <v>5101</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>5121</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>5141</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>6001</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>6021</v>
+      </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>6041</v>
+      </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="3">
+        <v>6061</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>6081</v>
+      </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="3">
+        <v>6101</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>6121</v>
+      </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3">
+        <v>6141</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="4">
+        <v>7001</v>
+      </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>7021</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="4">
+        <v>7041</v>
+      </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="1">
+        <v>7061</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="4">
+        <v>7081</v>
+      </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="1">
+        <v>7101</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
+      <c r="B25" s="4">
+        <v>7121</v>
+      </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="1">
+        <v>7141</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
+      <c r="B27" s="4">
+        <v>8001</v>
+      </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3">
+        <v>8021</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3">
+        <v>8041</v>
+      </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
+      <c r="B30" s="4">
+        <v>8061</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <v>8081</v>
+      </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3">
+        <v>8101</v>
+      </c>
       <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>8121</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A68B993-173B-4B57-A378-64014E73C5CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D612C01-F997-47FF-AA7F-895126984FF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C33"/>
+  <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -473,8 +473,8 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>5001</v>
+      <c r="B3" s="4">
+        <v>8121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,11 +727,6 @@
         <v>8101</v>
       </c>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
-        <v>8121</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D612C01-F997-47FF-AA7F-895126984FF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA21515-2D7D-4415-9A42-B6A980F0D694}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>5021</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -490,7 +490,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>5041</v>
+        <v>9001</v>
+      </c>
+      <c r="C5">
+        <v>9015</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,9 +536,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>5141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>9016</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9030</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA21515-2D7D-4415-9A42-B6A980F0D694}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88503935-23B0-49B4-8676-70728CD5EDC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -501,9 +501,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>5061</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>9031</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9045</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88503935-23B0-49B4-8676-70728CD5EDC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56606758-287E-490F-84A1-3004F790B3D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -520,18 +520,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>5101</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>9046</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9060</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>5121</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>9061</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9070</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56606758-287E-490F-84A1-3004F790B3D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A861269A-BCB2-4A50-BC01-106A2F29F605}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -553,36 +553,44 @@
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>6001</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>9031</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9040</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>6021</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>9051</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9060</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>6041</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>9061</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9070</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>6061</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>9071</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9080</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -616,7 +624,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>6141</v>
+        <v>9041</v>
+      </c>
+      <c r="C18">
+        <v>9050</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A861269A-BCB2-4A50-BC01-106A2F29F605}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0322FB7-2E3C-4EA7-AE4D-0A7AF9C3C9A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -597,9 +597,11 @@
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>6081</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>9081</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9090</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -695,7 +697,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>7141</v>
+        <v>9091</v>
+      </c>
+      <c r="C26">
+        <v>9100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0322FB7-2E3C-4EA7-AE4D-0A7AF9C3C9A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A08208-70A3-4A89-8962-31B7863AAA8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -608,9 +608,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>6101</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>9101</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9110</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A08208-70A3-4A89-8962-31B7863AAA8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2172B46A-5F1D-4E85-A537-D551E02A87B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -476,6 +476,9 @@
       <c r="B3" s="4">
         <v>8121</v>
       </c>
+      <c r="C3">
+        <v>8140</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -484,6 +487,9 @@
       <c r="B4" s="3">
         <v>8141</v>
       </c>
+      <c r="C4">
+        <v>8153</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -514,6 +520,9 @@
       <c r="B7" s="1">
         <v>5081</v>
       </c>
+      <c r="C7" s="2">
+        <v>5100</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -619,9 +628,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>6121</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>9111</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9120</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -639,9 +650,11 @@
         <v>16</v>
       </c>
       <c r="B19" s="4">
-        <v>7001</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>9121</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9125</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2172B46A-5F1D-4E85-A537-D551E02A87B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9183C96-CFE4-4158-94E0-7C01F80AEF19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,12 +149,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -181,6 +187,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -463,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -517,11 +527,11 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>5081</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5100</v>
+      <c r="B7" s="5">
+        <v>9131</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,7 +671,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>7021</v>
+        <v>9126</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9130</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9183C96-CFE4-4158-94E0-7C01F80AEF19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E61DAE4-1DDF-45C1-BE2C-B81EE14D9539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,18 +149,12 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -187,10 +181,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -473,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -527,10 +517,10 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>9131</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>9135</v>
       </c>
     </row>
@@ -682,16 +672,21 @@
         <v>18</v>
       </c>
       <c r="B21" s="4">
-        <v>7041</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>9136</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9140</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>7061</v>
+        <v>9141</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9145</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,9 +694,11 @@
         <v>20</v>
       </c>
       <c r="B23" s="4">
-        <v>7081</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>9146</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9150</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E61DAE4-1DDF-45C1-BE2C-B81EE14D9539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE278AA-0E38-4270-85CF-04C0DDAD670F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -705,7 +705,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>7101</v>
+        <v>9151</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9154</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE278AA-0E38-4270-85CF-04C0DDAD670F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45A27ED-A402-44F1-B240-8DAB6D270968}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -716,7 +716,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="4">
-        <v>7121</v>
+        <v>21087</v>
       </c>
       <c r="C25" s="2"/>
     </row>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45A27ED-A402-44F1-B240-8DAB6D270968}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869E6170-8447-4CC0-B8DB-D1308712D4AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -485,10 +485,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>8141</v>
-      </c>
-      <c r="C4">
-        <v>8153</v>
+        <v>21088</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4">
-        <v>8001</v>
+        <v>21089</v>
       </c>
       <c r="C27" s="2"/>
     </row>
@@ -745,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>8021</v>
+        <v>21090</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,7 +759,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="4">
-        <v>8061</v>
+        <v>21091</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869E6170-8447-4CC0-B8DB-D1308712D4AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D40D3D-31CC-419D-9D25-DA706BCC0A41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -647,22 +647,18 @@
         <v>16</v>
       </c>
       <c r="B19" s="4">
-        <v>9121</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9125</v>
-      </c>
+        <v>21092</v>
+      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>9126</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9130</v>
-      </c>
+        <v>21093</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -767,7 +763,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>8081</v>
+        <v>21094</v>
       </c>
       <c r="C31" s="2"/>
     </row>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D40D3D-31CC-419D-9D25-DA706BCC0A41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7D055A-F7F0-4ADC-B731-8B45C881473F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>user_30</t>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -149,12 +153,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -179,6 +189,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,26 +478,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C32"/>
+  <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>8121</v>
       </c>
-      <c r="C3">
-        <v>8140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="5">
+        <v>8138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -488,7 +505,7 @@
         <v>21088</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -498,52 +515,49 @@
       <c r="C5">
         <v>9015</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>9031</v>
       </c>
-      <c r="C6" s="2">
-        <v>9045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>9043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>9131</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>8140</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <v>9046</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9060</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>9110</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>9061</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9070</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9045</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -553,19 +567,20 @@
       <c r="C10" s="2">
         <v>9030</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>9031</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9040</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9120</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -575,8 +590,11 @@
       <c r="C12" s="2">
         <v>9060</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -586,8 +604,11 @@
       <c r="C13" s="2">
         <v>9070</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -597,8 +618,11 @@
       <c r="C14" s="2">
         <v>9080</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -608,41 +632,41 @@
       <c r="C15" s="2">
         <v>9090</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>9101</v>
       </c>
-      <c r="C16" s="2">
-        <v>9110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" s="5">
+        <v>9109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>9111</v>
       </c>
-      <c r="C17" s="2">
-        <v>9120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="5">
+        <v>9119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>9041</v>
-      </c>
-      <c r="C18">
-        <v>9050</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -651,7 +675,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -660,18 +684,16 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="4">
-        <v>9136</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8139</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -681,8 +703,11 @@
       <c r="C22" s="2">
         <v>9145</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -692,19 +717,20 @@
       <c r="C23" s="2">
         <v>9150</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>9151</v>
-      </c>
-      <c r="C24" s="2">
-        <v>9154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9044</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -713,18 +739,18 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="7">
         <v>9091</v>
       </c>
-      <c r="C26">
-        <v>9100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="5">
+        <v>9099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -733,7 +759,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -741,7 +767,7 @@
         <v>21090</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -750,7 +776,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -758,7 +784,7 @@
         <v>21091</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -767,7 +793,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7D055A-F7F0-4ADC-B731-8B45C881473F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366AB00F-E580-4262-8845-53028246772C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D32"/>
+  <dimension ref="A3:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -599,14 +599,9 @@
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>9061</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9070</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
+        <v>8120</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -800,7 +795,14 @@
       <c r="B32" s="3">
         <v>8101</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>8119</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366AB00F-E580-4262-8845-53028246772C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA9E926-0C1B-43C0-A2BA-7AA61F4FFF48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>user_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +121,6 @@
   </si>
   <si>
     <t>user_30</t>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -179,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -191,7 +187,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -480,329 +475,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
-        <v>8121</v>
-      </c>
-      <c r="C3" s="5">
-        <v>8138</v>
-      </c>
+      <c r="B3" s="5">
+        <v>8058</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>21088</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8059</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>9001</v>
-      </c>
-      <c r="C5">
-        <v>9015</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8060</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>9031</v>
-      </c>
-      <c r="C6" s="5">
-        <v>9043</v>
-      </c>
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8118</v>
+      </c>
+      <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>8140</v>
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8119</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>9110</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9090</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9045</v>
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>9119</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9016</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9030</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>21088</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9120</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>21089</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
+      <c r="A12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>9051</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9060</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
+        <v>21090</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>8120</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>21091</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
-        <v>9071</v>
-      </c>
-      <c r="C14" s="2">
-        <v>9080</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
+      <c r="B14" s="4">
+        <v>21092</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
-        <v>9081</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9090</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
+      <c r="B15" s="1">
+        <v>21093</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6">
-        <v>9101</v>
-      </c>
-      <c r="C16" s="5">
-        <v>9109</v>
-      </c>
+      <c r="B16" s="3">
+        <v>21094</v>
+      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6">
-        <v>9111</v>
-      </c>
-      <c r="C17" s="5">
-        <v>9119</v>
-      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
-        <v>9100</v>
-      </c>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
-        <v>21092</v>
-      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
-        <v>21093</v>
-      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
-        <v>8139</v>
-      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
-        <v>9141</v>
-      </c>
-      <c r="C22" s="2">
-        <v>9145</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
-        <v>9146</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9150</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
-        <v>9044</v>
-      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="4">
-        <v>21087</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="7">
-        <v>9091</v>
-      </c>
-      <c r="C26" s="5">
-        <v>9099</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="4">
-        <v>21089</v>
-      </c>
-      <c r="C27" s="2"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="3">
-        <v>21090</v>
-      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3">
-        <v>8041</v>
-      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4">
-        <v>21091</v>
-      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3">
-        <v>21094</v>
-      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
-        <v>8101</v>
-      </c>
-      <c r="C32" s="2">
-        <v>8118</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
-        <v>8119</v>
-      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
@@ -819,19 +733,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86E4C3-44BC-423C-808C-D2A12C0113DC}">
   <dimension ref="A4:A24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4">
+        <v>8059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A24">
+    <sortCondition ref="A1:A24"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA9E926-0C1B-43C0-A2BA-7AA61F4FFF48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B3B1C-EADA-411E-99AF-56E1B7356E46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A3:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B32"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -530,16 +530,13 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <v>9090</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>9119</v>
+        <v>9090</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -547,17 +544,15 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
-        <v>21088</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>21089</v>
+      <c r="B11" s="5">
+        <v>9119</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -565,50 +560,47 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>21090</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="4">
-        <v>21091</v>
+      <c r="B13" s="5">
+        <v>21088</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
-        <v>21092</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
-        <v>21093</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
-        <v>21094</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>9119</v>
+      </c>
+      <c r="C17">
+        <v>9120</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -620,14 +612,18 @@
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3">
+        <v>21092</v>
+      </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4">
+        <v>21093</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,42 +673,58 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3">
+        <v>21089</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4">
+        <v>21090</v>
+      </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="3">
+        <v>8041</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8060</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="4">
+        <v>21091</v>
+      </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <v>21094</v>
+      </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="4">
+        <v>8101</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8120</v>
+      </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B3B1C-EADA-411E-99AF-56E1B7356E46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F85220-161F-4C60-811D-3217B137991E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -492,80 +492,79 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="6">
         <v>8059</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="5">
         <v>8060</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="5">
         <v>8118</v>
       </c>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="5">
         <v>8119</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="5">
         <v>9090</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5">
         <v>9119</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
       </c>
       <c r="B13" s="5">
         <v>21088</v>
@@ -732,8 +731,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{0F3A3F0F-7D64-4248-9809-515A04064F89}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B33">
-    <sortCondition ref="B1:B33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A33">
+    <sortCondition ref="A1:A33"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F85220-161F-4C60-811D-3217B137991E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137B49AB-BBA2-437A-B2F3-1F99440093F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,18 +149,12 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -185,12 +179,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,7 +464,7 @@
   <dimension ref="A3:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -485,9 +473,7 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
-        <v>8058</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,36 +487,28 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>8059</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
-        <v>8060</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
-        <v>8118</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
-        <v>8119</v>
-      </c>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -542,9 +520,7 @@
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
-        <v>9090</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,18 +533,14 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
-        <v>9119</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
-        <v>21088</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -594,12 +566,7 @@
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
-        <v>9119</v>
-      </c>
-      <c r="C17">
-        <v>9120</v>
-      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -672,29 +639,21 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3">
-        <v>21089</v>
-      </c>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="4">
-        <v>21090</v>
-      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3">
-        <v>8041</v>
-      </c>
-      <c r="C29" s="2">
-        <v>8060</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -718,12 +677,8 @@
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="4">
-        <v>8101</v>
-      </c>
-      <c r="C32" s="2">
-        <v>8120</v>
-      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>

--- a/ps.xlsx
+++ b/ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137B49AB-BBA2-437A-B2F3-1F99440093F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C77DD20-1647-47CB-834E-4553BD0FDEAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -578,18 +578,14 @@
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3">
-        <v>21092</v>
-      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
-        <v>21093</v>
-      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -659,18 +655,14 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4">
-        <v>21091</v>
-      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3">
-        <v>21094</v>
-      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
